--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>AMCR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
-        <v>43281</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43100</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3141000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3043100</v>
+      </c>
+      <c r="F8" s="3">
         <v>3140700</v>
       </c>
-      <c r="E8" s="3">
-        <v>4551800</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>2602900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2309900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6837200</v>
+      </c>
+      <c r="J8" s="3">
         <v>2262400</v>
       </c>
-      <c r="G8" s="3">
-        <v>4816900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4502200</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4633700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4467300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2489000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2425800</v>
+      </c>
+      <c r="F9" s="3">
         <v>2594000</v>
       </c>
-      <c r="E9" s="3">
-        <v>3702600</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>2068000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1890100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5535000</v>
+      </c>
+      <c r="J9" s="3">
         <v>1868600</v>
       </c>
-      <c r="G9" s="3">
-        <v>3855000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3607300</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3651600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3537600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>617300</v>
+      </c>
+      <c r="F10" s="3">
         <v>546700</v>
       </c>
-      <c r="E10" s="3">
-        <v>849200</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>534900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>419800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1302200</v>
+      </c>
+      <c r="J10" s="3">
         <v>393800</v>
       </c>
-      <c r="G10" s="3">
-        <v>961900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>894900</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>982100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>929700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F12" s="3">
         <v>25900</v>
       </c>
-      <c r="E12" s="3">
-        <v>30200</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>47500</v>
+      </c>
+      <c r="J12" s="3">
         <v>14200</v>
       </c>
-      <c r="G12" s="3">
-        <v>29600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>35900</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>35800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>33300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F14" s="3">
         <v>17600</v>
       </c>
-      <c r="E14" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>69900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J14" s="3">
         <v>12500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2869800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2770800</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000100</v>
       </c>
-      <c r="E17" s="3">
-        <v>4116000</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>2391300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2128600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6179900</v>
+      </c>
+      <c r="J17" s="3">
         <v>2084900</v>
       </c>
-      <c r="G17" s="3">
-        <v>4245200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3988400</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4149300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3999000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>271200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>272300</v>
+      </c>
+      <c r="F18" s="3">
         <v>140600</v>
       </c>
-      <c r="E18" s="3">
-        <v>435800</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>211600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>181300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>657300</v>
+      </c>
+      <c r="J18" s="3">
         <v>177500</v>
       </c>
-      <c r="G18" s="3">
-        <v>571700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>513800</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>484400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>468300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F20" s="3">
         <v>14300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-107700</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-103100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-101700</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-93200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-93800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>449400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>430500</v>
+      </c>
+      <c r="F21" s="3">
         <v>339200</v>
       </c>
-      <c r="E21" s="3">
-        <v>520400</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>399500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>268500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>661500</v>
+      </c>
+      <c r="J21" s="3">
         <v>263800</v>
       </c>
-      <c r="G21" s="3">
-        <v>648000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>595200</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>593600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>559800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>52300</v>
+      </c>
+      <c r="F22" s="3">
         <v>59700</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>48600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>51100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>52100</v>
+      </c>
+      <c r="J22" s="3">
         <v>56300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>230700</v>
+      </c>
+      <c r="F23" s="3">
         <v>95200</v>
       </c>
-      <c r="E23" s="3">
-        <v>328100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>167500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>134800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>508400</v>
+      </c>
+      <c r="J23" s="3">
         <v>121500</v>
       </c>
-      <c r="G23" s="3">
-        <v>468600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>412100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>391200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>374500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45100</v>
+      </c>
+      <c r="F24" s="3">
         <v>21800</v>
       </c>
-      <c r="E24" s="3">
-        <v>55400</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>90700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>86500</v>
+      </c>
+      <c r="J24" s="3">
         <v>21700</v>
       </c>
-      <c r="G24" s="3">
-        <v>67100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>83200</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>71100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>80600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>185600</v>
+      </c>
+      <c r="F26" s="3">
         <v>73400</v>
       </c>
-      <c r="E26" s="3">
-        <v>272700</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>76800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>106800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>421900</v>
+      </c>
+      <c r="J26" s="3">
         <v>99800</v>
       </c>
-      <c r="G26" s="3">
-        <v>401500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>328900</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>320100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>293900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>185600</v>
+      </c>
+      <c r="F27" s="3">
         <v>73700</v>
       </c>
-      <c r="E27" s="3">
-        <v>267600</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>79900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>112600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>406200</v>
+      </c>
+      <c r="J27" s="3">
         <v>98400</v>
       </c>
-      <c r="G27" s="3">
-        <v>394300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>324700</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>310400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>286600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,37 +1386,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-7700</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+      <c r="G29" s="3">
+        <v>700</v>
       </c>
       <c r="H29" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-14300</v>
       </c>
-      <c r="E32" s="3">
-        <v>107700</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>96800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>103100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>101700</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>93200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>93800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>185600</v>
+      </c>
+      <c r="F33" s="3">
         <v>66000</v>
       </c>
-      <c r="E33" s="3">
-        <v>267600</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>80600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>112600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>406200</v>
+      </c>
+      <c r="J33" s="3">
         <v>98400</v>
       </c>
-      <c r="G33" s="3">
-        <v>394300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>329700</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>310400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>286600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>185600</v>
+      </c>
+      <c r="F35" s="3">
         <v>66000</v>
       </c>
-      <c r="E35" s="3">
-        <v>267600</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>80600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>112600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>406200</v>
+      </c>
+      <c r="J35" s="3">
         <v>98400</v>
       </c>
-      <c r="G35" s="3">
-        <v>394300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>329700</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>310400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>286600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
-        <v>43281</v>
-      </c>
-      <c r="H38" s="2">
-        <v>43100</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>537800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>673800</v>
+      </c>
+      <c r="F41" s="3">
         <v>480200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="3">
         <v>490600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="3">
-        <v>620800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>419900</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="3">
         <v>561500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>386600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,211 +1771,259 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1730500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1669100</v>
+      </c>
+      <c r="F43" s="3">
         <v>1789500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="3">
         <v>1315600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1283500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1375000</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="3">
         <v>1405200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1385100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1819800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1891800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1874400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3">
         <v>1387000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1358800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1380600</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="3">
         <v>1305500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1258600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>414100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>452900</v>
+      </c>
+      <c r="F45" s="3">
         <v>418100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3">
         <v>24600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="3">
-        <v>22700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>26300</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="3">
         <v>14300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4502200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4687600</v>
+      </c>
+      <c r="F46" s="3">
         <v>4562200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="3">
         <v>3217800</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="3">
-        <v>3285800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>3201800</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="3">
         <v>3286500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3043300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>96800</v>
+      </c>
+      <c r="F47" s="3">
         <v>103100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3">
         <v>438700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3">
-        <v>438500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>427200</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="3">
         <v>411900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>424900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4158800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4310800</v>
+      </c>
+      <c r="F48" s="3">
         <v>4438800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="3">
         <v>2623900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2698300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2780200</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="3">
         <v>2765300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2684100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7264300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7340400</v>
+      </c>
+      <c r="F49" s="3">
         <v>7240300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3">
         <v>2361400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2387800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2434100</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="3">
         <v>2409300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2248700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>387100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>397000</v>
+      </c>
+      <c r="F52" s="3">
         <v>386300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3">
         <v>226200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3">
-        <v>236300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>216700</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="3">
         <v>210300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>220500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16421000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16832600</v>
+      </c>
+      <c r="F54" s="3">
         <v>16730700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="3">
         <v>8868000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="3">
-        <v>9046700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>9060000</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="3">
         <v>9083300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8621500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3">
         <v>2472500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2606700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2377600</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="3">
         <v>2607900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2202000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>312800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>357200</v>
+      </c>
+      <c r="F58" s="3">
         <v>317800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3">
         <v>1481400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1822000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2314800</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="3">
         <v>1124600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>998100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3339100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3410200</v>
+      </c>
+      <c r="F59" s="3">
         <v>3521800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3">
         <v>238600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="3">
-        <v>268100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>289500</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="3">
         <v>301700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>203900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3651900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3767400</v>
+      </c>
+      <c r="F60" s="3">
         <v>3839600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="3">
         <v>4192500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4696800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4981900</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="3">
         <v>4034200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3404000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6208800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5853500</v>
+      </c>
+      <c r="F61" s="3">
         <v>5454800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>3032200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2671000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2458400</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>3486400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3673700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1757500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1808800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1944900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3">
         <v>585800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3">
-        <v>588400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>661800</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="3">
         <v>693000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>701700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11681400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11492900</v>
+      </c>
+      <c r="F66" s="3">
         <v>11306500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3">
         <v>7874900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="3">
-        <v>8025000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>8166600</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="3">
         <v>8283200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7843400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>254700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>254400</v>
+      </c>
+      <c r="F72" s="3">
         <v>252300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="3">
         <v>-428800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-379000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-538300</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
         <v>-616800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-687000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4739600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5339700</v>
+      </c>
+      <c r="F76" s="3">
         <v>5424200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="3">
         <v>993100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1021700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>893400</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="3">
         <v>800100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>778100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
-        <v>43281</v>
-      </c>
-      <c r="H80" s="2">
-        <v>43100</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>185600</v>
+      </c>
+      <c r="F81" s="3">
         <v>66000</v>
       </c>
-      <c r="E81" s="3">
-        <v>267600</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>80600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>112600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>406200</v>
+      </c>
+      <c r="J81" s="3">
         <v>98400</v>
       </c>
-      <c r="G81" s="3">
-        <v>394300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>329700</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>310400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>286600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>147500</v>
+      </c>
+      <c r="F83" s="3">
         <v>184300</v>
       </c>
-      <c r="E83" s="3">
-        <v>192300</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>183400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>77300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>106300</v>
+      </c>
+      <c r="J83" s="3">
         <v>86000</v>
       </c>
-      <c r="G83" s="3">
-        <v>179400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>183100</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>202400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>185300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>431400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-89400</v>
       </c>
-      <c r="E89" s="3">
-        <v>229000</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>613100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-113300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>540500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-305800</v>
       </c>
-      <c r="G89" s="3">
-        <v>759000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>178100</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>812500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>214900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-115400</v>
       </c>
-      <c r="E91" s="3">
-        <v>-173400</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-112800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-185000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-187100</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-175400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-203800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="F94" s="3">
         <v>284100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>194000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-105800</v>
       </c>
-      <c r="G94" s="3">
-        <v>-135800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-93600</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-173700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-458900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3445,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-183200</v>
       </c>
       <c r="E96" s="3">
-        <v>-290600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-244600</v>
+        <v>-388200</v>
       </c>
       <c r="H96" s="3">
-        <v>-282200</v>
+        <v>-900</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-231100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-258000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-147800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-306200</v>
       </c>
-      <c r="E100" s="3">
-        <v>-235400</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>-767300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>232300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-384200</v>
+      </c>
+      <c r="J100" s="3">
         <v>154300</v>
       </c>
-      <c r="G100" s="3">
-        <v>-441800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-275700</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-476400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>139400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-9900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>13100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-9300</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>17100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-30600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>193600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-121400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-136700</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>52900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>58000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>136500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-266600</v>
       </c>
-      <c r="G102" s="3">
-        <v>180400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-196000</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>179500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-135200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>AMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3097000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3142700</v>
+      </c>
+      <c r="F8" s="3">
         <v>3141000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3043100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3140700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2602900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2309900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6837200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2262400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4633700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4467300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2443000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2423200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2489000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2425800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2594000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2068000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1890100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5535000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1868600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3651600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3537600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>654000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>719500</v>
+      </c>
+      <c r="F10" s="3">
         <v>652000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>617300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>546700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>534900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>419800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1302200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>393800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>982100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>929700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F12" s="3">
         <v>24900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>23500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>25900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>16700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>15800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>47500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>35800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>33300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,43 +944,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>53300</v>
+      </c>
+      <c r="F14" s="3">
         <v>20100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>24100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>17600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>69900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>8500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>44900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>12500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2832800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2869800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2770800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3000100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2391300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2128600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6179900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2084900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4149300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3999000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>309900</v>
+      </c>
+      <c r="F18" s="3">
         <v>271200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>272300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>140600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>211600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>181300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>657300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>177500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>484400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>468300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1143,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="3">
         <v>10700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>10700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>14300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-96800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-93200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-93800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>464600</v>
+      </c>
+      <c r="F21" s="3">
         <v>449400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>430500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>339200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>399500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>268500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>661500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>263800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>593600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>559800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>49100</v>
+      </c>
+      <c r="F22" s="3">
         <v>45800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>52300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>59700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>48600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>51100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>52100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>56300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>263200</v>
+      </c>
+      <c r="F23" s="3">
         <v>236100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>230700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>95200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>167500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>134800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>508400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>121500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>391200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>374500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>63900</v>
+      </c>
+      <c r="F24" s="3">
         <v>56100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>45100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>21800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>90700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>86500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>21700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>71100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>80600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>199300</v>
+      </c>
+      <c r="F26" s="3">
         <v>180000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>185600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>73400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>76800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>106800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>421900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>99800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>320100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>293900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>179100</v>
+      </c>
+      <c r="F27" s="3">
         <v>181500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>185600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>73700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>79900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>112600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>406200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>98400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>310400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>286600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1404,31 +1526,37 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-7700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>700</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-10700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-14300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>96800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>93200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>93800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>179100</v>
+      </c>
+      <c r="F33" s="3">
         <v>181500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>185600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>66000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>80600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>112600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>406200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>98400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>310400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>286600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>179100</v>
+      </c>
+      <c r="F35" s="3">
         <v>181500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>185600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>66000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>80600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>112600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>406200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>98400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>310400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>286600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1879,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>742600</v>
+      </c>
+      <c r="F41" s="3">
         <v>537800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>673800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>480200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="3">
         <v>490600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="3">
         <v>561500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>386600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,253 +1957,301 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1615900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1730500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1669100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1789500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="3">
         <v>1315600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="3">
         <v>1405200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1385100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1831900</v>
+      </c>
+      <c r="F44" s="3">
         <v>1819800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1891800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1874400</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="3">
         <v>1387000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="3">
         <v>1305500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1258600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>344300</v>
+      </c>
+      <c r="F45" s="3">
         <v>414100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>452900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>418100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="3">
         <v>24600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="3">
         <v>14300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4612000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4534700</v>
+      </c>
+      <c r="F46" s="3">
         <v>4502200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4687600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4562200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="3">
         <v>3217800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="3">
         <v>3286500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3043300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F47" s="3">
         <v>108600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>96800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>103100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="3">
         <v>438700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="3">
         <v>411900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>424900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4153000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4140100</v>
+      </c>
+      <c r="F48" s="3">
         <v>4158800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4310800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4438800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="3">
         <v>2623900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="3">
         <v>2765300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2684100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7333000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7333600</v>
+      </c>
+      <c r="F49" s="3">
         <v>7264300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7340400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7240300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="3">
         <v>2361400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="3">
         <v>2409300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2248700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2326,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>356000</v>
+      </c>
+      <c r="F52" s="3">
         <v>387100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>397000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>386300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="3">
         <v>226200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="3">
         <v>210300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>220500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16465000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16442100</v>
+      </c>
+      <c r="F54" s="3">
         <v>16421000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16832600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16730700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="3">
         <v>8868000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="3">
         <v>9083300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8621500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2487,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2247,198 +2509,234 @@
       <c r="H57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="3">
         <v>2472500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="3">
         <v>2607900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2202000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>206300</v>
+      </c>
+      <c r="F58" s="3">
         <v>312800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>357200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>317800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="3">
         <v>1481400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="3">
         <v>1124600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>998100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3388000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3767300</v>
+      </c>
+      <c r="F59" s="3">
         <v>3339100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3410200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3521800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="3">
         <v>238600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="3">
         <v>301700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>203900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3626000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3973600</v>
+      </c>
+      <c r="F60" s="3">
         <v>3651900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3767400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3839600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="3">
         <v>4192500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" s="3">
         <v>4034200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3404000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6361000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6028400</v>
+      </c>
+      <c r="F61" s="3">
         <v>6208800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5853500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5454800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>3032200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3486400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3673700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1753000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1757500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1808800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1944900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="3">
         <v>585800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="3">
         <v>693000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>701700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11778000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11816200</v>
+      </c>
+      <c r="F66" s="3">
         <v>11681400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11492900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11306500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="3">
         <v>7874900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="3">
         <v>8283200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7843400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>246500</v>
+      </c>
+      <c r="F72" s="3">
         <v>254700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>254400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>252300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
         <v>-428800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3">
         <v>-616800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-687000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4687000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4625900</v>
+      </c>
+      <c r="F76" s="3">
         <v>4739600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5339700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5424200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="3">
         <v>993100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" s="3">
         <v>800100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>778100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>179100</v>
+      </c>
+      <c r="F81" s="3">
         <v>181500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>185600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>66000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>80600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>112600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>406200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>98400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>310400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>286600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3428,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>152300</v>
+      </c>
+      <c r="F83" s="3">
         <v>167500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>147500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>184300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>183400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>77300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>106300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>86000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>202400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>185300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>913900</v>
+      </c>
+      <c r="F89" s="3">
         <v>128300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>431400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-89400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>613100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-113300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>540500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-305800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>812500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>214900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3732,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-86800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-106100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-91200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-115400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-81300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-78900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-59200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-112800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-175400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-203800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-77600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-90100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>284100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>194000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-70900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-105800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-173700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-458900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,43 +3913,51 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-187300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-183200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-388200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-231100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-258000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +4073,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-646500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-147800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-135900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-306200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-767300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>232300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-384200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>154300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-476400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>139400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-38900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-11800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-9900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>13100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>3500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-6300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-9300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>17100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-30600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>204800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-136000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>193600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-121400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>52900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>58000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>136500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-266600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>179500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-135200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>AMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3103000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3097000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3142700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3141000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3043100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3140700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2602900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2309900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6837200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2262400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4633700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4467300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2452000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2443000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2423200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2489000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2425800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2594000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2068000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1890100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5535000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1868600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3651600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3537600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>651000</v>
+      </c>
+      <c r="E10" s="3">
         <v>654000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>719500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>652000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>617300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>546700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>534900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>419800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1302200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>393800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>982100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>929700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E12" s="3">
         <v>26000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>47500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>35800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -959,40 +978,43 @@
         <v>23000</v>
       </c>
       <c r="E14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F14" s="3">
         <v>53300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>69900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>44900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2821000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2832800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2869800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2770800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2391300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2128600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6179900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2084900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4149300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3999000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E18" s="3">
         <v>276000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>309900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>271200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>272300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>140600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>211600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>181300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>657300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>177500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>484400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>468300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>10700</v>
       </c>
       <c r="G20" s="3">
         <v>10700</v>
       </c>
       <c r="H20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I20" s="3">
         <v>14300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-96800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-93200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-93800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E21" s="3">
         <v>427000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>464600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>449400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>430500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>339200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>399500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>268500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>661500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>263800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>593600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>559800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E22" s="3">
         <v>40000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>49100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E23" s="3">
         <v>242000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>263200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>236100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>230700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>95200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>167500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>134800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>508400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>121500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>391200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>374500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E24" s="3">
         <v>61000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>63900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>56100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>45100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>90700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>86500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>71100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>80600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E26" s="3">
         <v>181000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>199300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>180000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>185600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>73400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>106800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>421900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>320100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>293900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E27" s="3">
         <v>198000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>179100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>181500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>185600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>73700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>79900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>112600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>406200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>98400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>310400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>286600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1532,22 +1592,22 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-7700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>700</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-10700</v>
       </c>
       <c r="G32" s="3">
         <v>-10700</v>
       </c>
       <c r="H32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-14300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>96800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>93200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>93800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E33" s="3">
         <v>198000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>179100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>181500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>185600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>66000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>80600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>112600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>406200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>98400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>310400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>286600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E35" s="3">
         <v>198000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>179100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>181500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>185600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>66000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>80600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>112600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>406200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>98400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>310400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>286600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>755000</v>
+      </c>
+      <c r="E41" s="3">
         <v>757000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>742600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>537800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>673800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>480200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3">
         <v>490600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="3">
         <v>561500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>386600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,172 +2052,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1681000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1673000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1615900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1730500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1669100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1789500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="3">
         <v>1315600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="3">
         <v>1405200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1385100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1843000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1784000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1831900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1819800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1891800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1874400</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="3">
         <v>1387000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="3">
         <v>1305500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1258600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E45" s="3">
         <v>398000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>344300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>414100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>452900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>418100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="3">
         <v>24600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="3">
         <v>14300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4713000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4612000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4534700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4502200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4687600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4562200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="3">
         <v>3217800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="3">
         <v>3286500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3043300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2136,122 +2240,131 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>77700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>108600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>96800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>103100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3">
         <v>438700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3">
         <v>411900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>424900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4286000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4153000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4140100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4158800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4310800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4438800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="3">
         <v>2623900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="3">
         <v>2765300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2684100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7357000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7333000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7333600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7264300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7340400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7240300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="3">
         <v>2361400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="3">
         <v>2409300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2248700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E52" s="3">
         <v>367000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>356000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>387100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>397000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>386300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="3">
         <v>226200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52" s="3">
         <v>210300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>220500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16718000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16465000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16442100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16421000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16832600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16730700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="3">
         <v>8868000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="3">
         <v>9083300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8621500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="3">
         <v>2472500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="3">
         <v>2607900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2202000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E58" s="3">
         <v>238000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>206300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>312800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>357200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>317800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="3">
         <v>1481400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="3">
         <v>1124600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>998100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3625000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3388000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3767300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3339100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3410200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3521800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="3">
         <v>238600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59" s="3">
         <v>301700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>203900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3678000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3626000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3973600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3651900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3767400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3839600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="3">
         <v>4192500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="3">
         <v>4034200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3404000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6432000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6361000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6028400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6208800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5853500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5454800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3032200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3486400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3673700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1734000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1753000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1757500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1808800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1944900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="3">
         <v>585800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="3">
         <v>693000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>701700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11926000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11778000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11816200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11681400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11492900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11306500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="3">
         <v>7874900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" s="3">
         <v>8283200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7843400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E72" s="3">
         <v>258000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>246500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>254700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>254400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>252300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="3">
         <v>-428800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72" s="3">
         <v>-616800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-687000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4792000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4687000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4625900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4739600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5339700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5424200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="3">
         <v>993100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N76" s="3">
         <v>800100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>778100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E81" s="3">
         <v>198000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>179100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>181500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>185600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>66000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>80600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>112600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>406200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>98400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>310400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>286600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E83" s="3">
         <v>145000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>152300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>167500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>147500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>184300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>183400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>77300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>106300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>202400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>185300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-110000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>913900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>128300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>431400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-89400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>613100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-113300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>540500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-305800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>812500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>214900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-114000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-86800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-106100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-91200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-115400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-81300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-78900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-112800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-175400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-203800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E94" s="3">
         <v>27000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-78500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-90100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>284100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>194000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-105800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-173700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-458900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-188000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-187300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-183200</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-388200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-231100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-258000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-485000</v>
+      </c>
+      <c r="E100" s="3">
         <v>76000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-646500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-147800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-135900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-306200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-767300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>232300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-384200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>154300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-476400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>139400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>21000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>15900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-38900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-30600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>14000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>204800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-136000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>193600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-121400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>52900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>58000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>136500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-266600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>179500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-135200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3207000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3103000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3097000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3142700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3141000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3043100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3140700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2602900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2309900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6837200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2262400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4633700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4467300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2525000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2452000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2443000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2423200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2489000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2425800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2594000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2068000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1890100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5535000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1868600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3651600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3537600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E10" s="3">
         <v>651000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>654000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>719500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>652000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>617300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>546700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>534900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>419800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1302200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>393800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>982100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>929700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>47500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>35800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>23000</v>
+        <v>-24000</v>
       </c>
       <c r="E14" s="3">
         <v>23000</v>
       </c>
       <c r="F14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G14" s="3">
         <v>53300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>69900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>44900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2834000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2796000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2821000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2832800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2869800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2770800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2391300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2128600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6179900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2084900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4149300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3999000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E18" s="3">
         <v>307000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>276000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>309900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>271200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>272300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>140600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>211600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>181300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>657300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>177500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>484400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>468300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>10700</v>
       </c>
       <c r="H20" s="3">
         <v>10700</v>
       </c>
       <c r="I20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J20" s="3">
         <v>14300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-96800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-93200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-93800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E21" s="3">
         <v>456000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>427000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>464600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>449400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>430500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>339200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>399500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>268500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>661500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>263800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>593600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>559800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E22" s="3">
         <v>37000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>49100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E23" s="3">
         <v>277000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>242000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>263200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>236100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>230700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>95200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>167500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>134800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>508400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>121500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>391200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>374500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E24" s="3">
         <v>55000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>61000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>63900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>56100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>45100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>90700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>86500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>71100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>80600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E26" s="3">
         <v>222000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>181000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>199300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>180000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>185600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>73400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>76800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>106800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>421900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>320100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>293900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E27" s="3">
         <v>218000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>198000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>179100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>181500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>185600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>73700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>79900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>406200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>98400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>310400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>286600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,22 +1656,22 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-7700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-10700</v>
       </c>
       <c r="H32" s="3">
         <v>-10700</v>
       </c>
       <c r="I32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-14300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>96800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>93200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>93800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E33" s="3">
         <v>218000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>198000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>179100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>181500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>185600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>66000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>80600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>112600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>406200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>98400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>310400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>286600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E35" s="3">
         <v>218000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>198000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>179100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>181500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>185600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>66000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>80600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>112600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>406200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>98400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>310400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>286600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E41" s="3">
         <v>755000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>757000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>742600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>537800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>673800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>480200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="3">
         <v>490600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="3">
         <v>561500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>386600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1775000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1681000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1673000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1615900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1730500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1669100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1789500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="3">
         <v>1315600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="3">
         <v>1405200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1385100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1876000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1843000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1784000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1831900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1819800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1891800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1874400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="3">
         <v>1387000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="3">
         <v>1305500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1258600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E45" s="3">
         <v>434000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>398000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>344300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>414100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>452900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>418100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="3">
         <v>24600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="3">
         <v>14300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4770000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4713000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4612000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4534700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4502200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4687600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4562200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="3">
         <v>3217800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="3">
         <v>3286500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3043300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2243,128 +2348,137 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>77700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>108600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>96800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>103100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="3">
         <v>438700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" s="3">
         <v>411900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>424900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4198000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4286000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4153000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4140100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4158800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4310800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4438800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="3">
         <v>2623900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="3">
         <v>2765300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2684100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7267000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7357000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7333000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7333600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7264300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7340400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7240300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="3">
         <v>2361400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" s="3">
         <v>2409300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2248700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E52" s="3">
         <v>362000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>367000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>356000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>387100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>397000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>386300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="3">
         <v>226200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="3">
         <v>210300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>220500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16592000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16718000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16465000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16442100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16421000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16832600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16730700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="3">
         <v>8868000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="3">
         <v>9083300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8621500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2645,246 +2776,264 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="3">
         <v>2472500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="3">
         <v>2607900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2202000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E58" s="3">
         <v>53000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>238000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>206300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>312800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>357200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>317800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="3">
         <v>1481400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="3">
         <v>1124600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>998100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3563000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3625000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3388000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3767300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3339100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3410200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3521800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="3">
         <v>238600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="3">
         <v>301700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>203900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3670000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3678000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3626000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3973600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3651900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3767400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3839600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" s="3">
         <v>4192500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="3">
         <v>4034200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3404000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6497000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6432000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6361000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6028400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6208800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5853500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5454800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3032200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3486400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3673700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1720000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1760000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1734000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1753000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1757500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1808800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1944900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="3">
         <v>585800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="3">
         <v>693000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>701700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11945000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11926000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11778000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11816200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11681400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11492900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11306500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="3">
         <v>7874900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="3">
         <v>8283200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7843400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E72" s="3">
         <v>293000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>258000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>246500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>254700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>254400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>252300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3">
         <v>-428800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="3">
         <v>-616800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-687000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4647000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4792000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4687000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4625900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4739600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5339700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5424200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" s="3">
         <v>993100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="3">
         <v>800100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>778100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E81" s="3">
         <v>218000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>198000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>179100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>181500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>185600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>66000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>80600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>112600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>406200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>98400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>310400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>286600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E83" s="3">
         <v>142000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>152300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>167500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>147500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>184300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>183400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>202400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>185300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E89" s="3">
         <v>552000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-110000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>913900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>128300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>431400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-89400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>613100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-113300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>540500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-305800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>812500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>214900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-104000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-114000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-86800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-106100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-91200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-115400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-81300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-78900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-112800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-175400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-203800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-103000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>27000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-78500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-77600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-90100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>284100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>194000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-105800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-173700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-458900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-186000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-188000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-187300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-183200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-388200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-231100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-258000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-192000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-485000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>76000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-646500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-147800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-135900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-306200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-767300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>232300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-384200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>154300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-476400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>139400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>21000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>15900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-38900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>17100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-30600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>204800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-136000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>193600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-121400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>52900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>136500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-266600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>179500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-135200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>AMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3420000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3454000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3207000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3103000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3097000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3142700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3141000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3043100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3140700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2602900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2309900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6837200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2262400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4633700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4467300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2770000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2709000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2525000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2452000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2443000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2423200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2489000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2425800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2594000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2068000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1890100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5535000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1868600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3651600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3537600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>745000</v>
+      </c>
+      <c r="F10" s="3">
         <v>682000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>651000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>654000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>719500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>652000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>617300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>546700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>534900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>419800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1302200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>393800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>982100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>929700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,46 +932,52 @@
         <v>25000</v>
       </c>
       <c r="E12" s="3">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="F12" s="3">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="G12" s="3">
         <v>23000</v>
       </c>
       <c r="H12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J12" s="3">
         <v>24900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>23500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>25900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>16700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>15800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>47500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>14200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>35800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>33300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,55 +1023,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-24000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>53300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>20100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>24100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>17600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>69900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>8500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>44900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>12500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3124000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3089000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2834000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2796000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2821000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2832800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2869800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2770800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3000100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2391300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2128600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6179900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2084900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4149300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3999000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>296000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>365000</v>
+      </c>
+      <c r="F18" s="3">
         <v>373000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>307000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>276000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>309900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>271200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>272300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>140600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>211600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>181300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>657300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>177500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>484400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>468300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1278,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>10700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>10700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>14300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-96800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-93200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>521000</v>
+      </c>
+      <c r="F21" s="3">
         <v>516000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>456000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>427000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>464600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>449400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>430500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>339200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>399500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>268500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>661500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>263800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>593600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>559800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F22" s="3">
         <v>36000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>37000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>49100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>45800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>52300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>59700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>48600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>51100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>52100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>56300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>333000</v>
+      </c>
+      <c r="F23" s="3">
         <v>341000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>277000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>242000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>263200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>236100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>230700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>95200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>167500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>134800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>508400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>121500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>391200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>374500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F24" s="3">
         <v>71000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>55000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>61000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>63900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>56100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>45100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>21800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>90700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>28000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>86500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>21700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>71100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>80600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>259000</v>
+      </c>
+      <c r="F26" s="3">
         <v>270000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>222000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>181000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>199300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>180000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>185600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>73400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>76800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>106800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>421900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>99800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>320100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>293900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>254000</v>
+      </c>
+      <c r="F27" s="3">
         <v>267000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>218000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>198000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>179100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>181500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>185600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>73700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>79900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>112600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>406200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>98400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>310400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>286600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,13 +1751,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1659,31 +1781,37 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-7700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-10700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-10700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-14300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>96800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>93200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>93800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>254000</v>
+      </c>
+      <c r="F33" s="3">
         <v>267000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>218000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>198000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>179100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>181500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>185600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>66000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>80600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>112600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>406200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>98400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>310400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>286600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>254000</v>
+      </c>
+      <c r="F35" s="3">
         <v>267000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>218000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>198000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>179100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>181500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>185600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>66000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>80600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>112600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>406200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>98400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>310400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>286600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>633000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>850000</v>
+      </c>
+      <c r="F41" s="3">
         <v>690000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>755000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>757000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>742600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>537800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>673800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>480200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="3">
         <v>490600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="3">
         <v>561500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>386600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,201 +2328,231 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1938000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1864000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1775000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1681000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1673000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1615900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1730500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1669100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1789500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="3">
         <v>1315600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1405200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1385100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2113000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1876000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1843000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1784000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1831900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1819800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1891800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1874400</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="3">
         <v>1387000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1305500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1258600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>561000</v>
+      </c>
+      <c r="F45" s="3">
         <v>429000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>434000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>398000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>344300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>414100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>452900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>418100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="3">
         <v>24600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="3">
         <v>14300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>13000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5279000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5266000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4770000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4713000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4612000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4534700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4502200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4687600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4562200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="3">
         <v>3217800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="3">
         <v>3286500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3043300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2351,134 +2561,152 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>77700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>108600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>96800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>103100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" s="3">
         <v>438700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="3">
         <v>411900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>424900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4221000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4293000</v>
+      </c>
+      <c r="F48" s="3">
         <v>4198000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4286000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4153000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4140100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4158800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4310800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4438800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="3">
         <v>2623900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2765300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2684100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7177000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7254000</v>
+      </c>
+      <c r="F49" s="3">
         <v>7267000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7357000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7333000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>7333600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>7264300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>7340400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7240300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" s="3">
         <v>2361400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2409300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2248700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>375000</v>
+      </c>
+      <c r="F52" s="3">
         <v>357000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>362000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>367000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>356000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>387100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>397000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>386300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="3">
         <v>226200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="3">
         <v>210300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>220500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17044000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17188000</v>
+      </c>
+      <c r="F54" s="3">
         <v>16592000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16718000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16465000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16442100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16421000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16832600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16730700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="3">
         <v>8868000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="3">
         <v>9083300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8621500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3010,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2779,261 +3041,297 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>10</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="3">
         <v>2472500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2607900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2202000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>103000</v>
+      </c>
+      <c r="F58" s="3">
         <v>107000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>53000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>238000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>206300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>312800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>357200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>317800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="3">
         <v>1481400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1124600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>998100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3949000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4242000</v>
+      </c>
+      <c r="F59" s="3">
         <v>3563000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3625000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3388000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3767300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3339100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3410200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3521800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="3">
         <v>238600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="3">
         <v>301700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>203900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4017000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4345000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3670000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3678000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3626000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3973600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3651900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3767400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3839600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="3">
         <v>4192500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4034200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3404000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6524000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6186000</v>
+      </c>
+      <c r="F61" s="3">
         <v>6497000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6432000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6361000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6028400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6208800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5853500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5454800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3032200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3486400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3673700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1836000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1720000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1760000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1734000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1753000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1757500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1808800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1944900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="3">
         <v>585800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="3">
         <v>693000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>701700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12394000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12424000</v>
+      </c>
+      <c r="F66" s="3">
         <v>11945000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11926000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11778000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11816200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11681400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11492900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11306500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="3">
         <v>7874900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="3">
         <v>8283200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7843400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>452000</v>
+      </c>
+      <c r="F72" s="3">
         <v>378000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>293000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>258000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>246500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>254700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>254400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>252300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="3">
         <v>-428800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-616800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-687000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4650000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4764000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4647000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4792000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4687000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4625900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4739600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5339700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5424200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="3">
         <v>993100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="3">
         <v>800100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>778100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>254000</v>
+      </c>
+      <c r="F81" s="3">
         <v>267000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>218000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>198000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>179100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>181500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>185600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>66000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>80600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>112600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>406200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>98400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>310400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>286600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4223,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>148000</v>
+      </c>
+      <c r="F83" s="3">
         <v>139000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>142000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>145000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>152300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>167500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>147500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>184300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>183400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>77300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>106300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>86000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>202400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>185300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>844000</v>
+      </c>
+      <c r="F89" s="3">
         <v>175000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>552000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-110000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>913900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>128300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>431400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-89400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>613100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-113300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>540500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-305800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>812500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>214900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-117000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-104000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-114000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-86800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-106100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-91200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-115400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-81300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-78900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-59200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-112800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-175400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-203800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-39000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-103000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>27000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-78500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-77600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-90100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>284100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>194000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-70900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-105800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-173700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-458900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4848,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-182000</v>
+        <v>-183000</v>
       </c>
       <c r="E96" s="3">
         <v>-186000</v>
       </c>
       <c r="F96" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-188000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-187300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-183200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-388200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-231100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-258000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5056,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-578000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-192000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-485000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>76000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-646500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-147800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-135900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-306200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-767300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>232300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-384200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>154300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-476400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>139400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>34000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>21000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>15900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-38900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-11800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-9900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>13100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-6300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-9300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>17100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-65000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>204800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-136000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>193600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-121400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>52900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>58000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>136500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-266600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>179500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-135200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>AMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3507000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3420000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3454000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3207000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3103000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3097000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3142700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3141000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3043100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3140700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2602900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2309900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6837200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2262400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4633700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4467300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2862000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2770000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2709000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2525000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2452000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2443000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2423200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2489000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2425800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2594000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2068000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1890100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5535000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1868600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3651600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3537600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E10" s="3">
         <v>650000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>745000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>682000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>651000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>654000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>719500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>652000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>617300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>546700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>534900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>419800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1302200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>393800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>982100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>929700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>47500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>35800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>33300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>72000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-24000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>23000</v>
       </c>
       <c r="H14" s="3">
         <v>23000</v>
       </c>
       <c r="I14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J14" s="3">
         <v>53300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>69900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>44900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3185000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3124000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3089000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2834000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2796000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2821000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2832800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2869800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2770800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2391300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2128600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6179900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2084900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4149300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3999000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E18" s="3">
         <v>296000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>365000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>373000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>307000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>276000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>309900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>271200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>272300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>140600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>211600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>181300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>657300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>177500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>484400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>468300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>10700</v>
       </c>
       <c r="K20" s="3">
         <v>10700</v>
       </c>
       <c r="L20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="M20" s="3">
         <v>14300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-96800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-93200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-93800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E21" s="3">
         <v>483000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>521000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>516000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>456000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>427000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>464600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>449400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>430500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>339200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>399500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>268500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>661500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>263800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>593600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>559800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40000</v>
+        <v>39000</v>
       </c>
       <c r="E22" s="3">
         <v>40000</v>
       </c>
       <c r="F22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G22" s="3">
         <v>36000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>40000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>49100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>56300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E23" s="3">
         <v>266000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>333000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>341000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>277000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>242000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>263200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>236100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>230700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>167500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>134800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>508400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>121500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>391200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>374500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E24" s="3">
         <v>63000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>74000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>71000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>61000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>63900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>56100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>90700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>86500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>71100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>80600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E26" s="3">
         <v>203000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>259000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>270000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>222000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>181000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>199300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>180000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>185600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>73400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>76800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>106800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>421900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>99800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>320100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>293900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E27" s="3">
         <v>202000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>254000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>267000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>218000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>198000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>179100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>181500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>185600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>73700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>79900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>406200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>98400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>310400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>286600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,16 +1814,19 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1787,22 +1847,22 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-7700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-10700</v>
       </c>
       <c r="K32" s="3">
         <v>-10700</v>
       </c>
       <c r="L32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="M32" s="3">
         <v>-14300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>96800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>93200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>93800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E33" s="3">
         <v>202000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>254000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>267000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>218000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>198000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>179100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>181500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>185600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>66000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>80600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>112600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>406200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>98400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>310400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>286600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E35" s="3">
         <v>202000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>254000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>267000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>218000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>198000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>179100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>181500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>185600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>66000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>80600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>112600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>406200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>98400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>310400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>286600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E41" s="3">
         <v>633000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>850000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>690000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>755000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>757000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>742600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>537800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>673800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>480200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="3">
         <v>490600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" s="3">
         <v>561500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>386600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,228 +2423,243 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1938000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1864000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1775000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1681000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1673000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1615900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1730500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1669100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1789500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="3">
         <v>1315600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="3">
         <v>1405200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1385100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2273000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2113000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1991000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1876000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1843000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1784000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1831900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1819800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1891800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1874400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="3">
         <v>1387000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="3">
         <v>1305500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1258600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E45" s="3">
         <v>595000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>561000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>429000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>434000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>398000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>344300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>414100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>452900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>418100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="3">
         <v>24600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" s="3">
         <v>14300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5391000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5279000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5266000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4770000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4713000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4612000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4534700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4502200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4687600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4562200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="3">
         <v>3217800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="3">
         <v>3286500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3043300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2567,146 +2671,155 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>77700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>108600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>96800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>103100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="3">
         <v>438700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="3">
         <v>411900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>424900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4236000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4221000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4293000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4198000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4286000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4153000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4140100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4158800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4310800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4438800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="3">
         <v>2623900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="3">
         <v>2765300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2684100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7119000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7177000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7254000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7267000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7357000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7333000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7333600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7264300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7340400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7240300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="3">
         <v>2361400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R49" s="3">
         <v>2409300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2248700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E52" s="3">
         <v>367000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>375000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>357000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>362000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>367000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>356000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>387100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>397000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>386300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="3">
         <v>226200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="3">
         <v>210300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>220500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17138000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17044000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17188000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16592000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16718000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16465000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16442100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16421000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16832600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16730700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="3">
         <v>8868000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R54" s="3">
         <v>9083300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8621500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3047,291 +3177,309 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P57" s="3">
         <v>2472500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="3">
         <v>2607900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2202000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E58" s="3">
         <v>68000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>103000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>107000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>53000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>238000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>206300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>312800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>357200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>317800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="3">
         <v>1481400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R58" s="3">
         <v>1124600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>998100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4172000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3949000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4242000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3563000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3625000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3388000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3767300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3339100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3410200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3521800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="3">
         <v>238600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R59" s="3">
         <v>301700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>203900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4293000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4017000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4345000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3670000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3678000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3626000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3973600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3651900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3767400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3839600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P60" s="3">
         <v>4192500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R60" s="3">
         <v>4034200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3404000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6548000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6524000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6186000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6497000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6432000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6361000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6028400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6208800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5853500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5454800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3032200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3486400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3673700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1798000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1836000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1720000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1760000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1734000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1753000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1757500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1808800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1944900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="3">
         <v>585800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="3">
         <v>693000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>701700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12676000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12394000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12424000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11945000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11926000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11778000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11816200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11681400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11492900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11306500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P66" s="3">
         <v>7874900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="3">
         <v>8283200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7843400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E72" s="3">
         <v>473000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>452000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>378000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>293000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>258000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>246500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>254700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>254400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>252300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P72" s="3">
         <v>-428800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="3">
         <v>-616800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-687000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4462000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4650000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4764000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4647000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4792000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4687000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4625900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4739600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5339700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5424200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P76" s="3">
         <v>993100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="3">
         <v>800100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>778100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E81" s="3">
         <v>202000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>254000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>267000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>218000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>198000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>179100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>181500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>185600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>66000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>80600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>112600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>406200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>98400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>310400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>286600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E83" s="3">
         <v>177000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>148000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>139000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>142000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>145000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>152300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>167500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>147500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>184300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>183400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>106300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>86000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>202400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>185300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-112000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>844000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>175000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>552000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-110000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>913900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>128300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>431400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-89400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>613100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-113300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>540500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-305800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>812500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>214900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-145000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-133000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-117000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-104000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-114000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-86800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-106100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-91200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-115400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-81300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-78900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-112800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-175400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-203800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-145000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-118000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-39000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>27000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-78500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-77600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-90100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>284100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>194000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-105800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-173700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-458900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-183000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-186000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-182000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-186000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-188000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-187300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-183200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-388200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-231100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-258000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-302000</v>
+      </c>
+      <c r="E100" s="3">
         <v>67000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-578000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-192000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-485000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>76000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-646500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-147800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-135900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-306200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-767300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>232300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-384200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>154300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-476400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>139400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-27000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>34000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>21000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>15900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-38900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-30600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-217000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>160000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-65000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>204800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-136000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>193600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-121400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>52900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>136500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-266600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>179500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-135200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>AMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3708000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3507000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3420000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3454000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3207000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3103000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3097000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3142700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3141000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3043100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3140700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2602900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2309900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6837200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2262400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4633700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4467300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2977000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2862000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2770000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2709000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2525000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2452000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2443000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2423200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2489000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2425800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2594000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2068000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1890100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5535000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1868600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3651600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3537600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E10" s="3">
         <v>645000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>650000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>745000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>682000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>651000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>654000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>719500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>652000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>617300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>546700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>534900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>419800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1302200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>393800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>982100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>929700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>47500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>35800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>33300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1065,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>72000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-24000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>23000</v>
       </c>
       <c r="I14" s="3">
         <v>23000</v>
       </c>
       <c r="J14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K14" s="3">
         <v>53300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>69900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>44900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3339000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3185000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3124000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3089000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2834000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2796000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2821000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2832800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2869800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2770800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2391300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2128600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6179900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2084900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4149300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3999000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>369000</v>
+      </c>
+      <c r="E18" s="3">
         <v>322000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>296000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>365000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>373000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>307000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>276000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>309900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>271200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>272300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>140600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>211600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>181300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>657300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>177500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>484400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>468300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10700</v>
       </c>
       <c r="L20" s="3">
         <v>10700</v>
       </c>
       <c r="M20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N20" s="3">
         <v>14300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-96800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-93200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-93800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E21" s="3">
         <v>484000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>483000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>521000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>516000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>456000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>427000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>464600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>449400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>430500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>339200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>399500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>268500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>661500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>263800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>593600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>559800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E22" s="3">
         <v>39000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>40000</v>
       </c>
       <c r="F22" s="3">
         <v>40000</v>
       </c>
       <c r="G22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H22" s="3">
         <v>36000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>49100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E23" s="3">
         <v>290000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>266000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>333000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>341000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>277000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>242000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>263200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>236100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>230700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>95200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>167500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>134800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>508400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>121500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>391200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>374500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E24" s="3">
         <v>61000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>63000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>74000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>71000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>61000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>63900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>90700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>86500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>71100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>80600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E26" s="3">
         <v>229000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>203000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>259000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>270000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>222000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>181000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>199300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>180000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>185600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>73400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>76800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>106800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>421900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>99800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>320100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>293900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E27" s="3">
         <v>224000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>202000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>254000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>267000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>218000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>198000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>179100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>181500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>185600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>73700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>112600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>406200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>98400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>310400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>286600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1828,8 +1889,8 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1850,22 +1911,22 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-7700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>700</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-10700</v>
       </c>
       <c r="L32" s="3">
         <v>-10700</v>
       </c>
       <c r="M32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="N32" s="3">
         <v>-14300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>96800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>93200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>93800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E33" s="3">
         <v>224000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>202000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>254000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>267000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>218000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>198000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>179100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>181500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>185600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>66000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>80600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>112600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>406200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>98400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>310400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>286600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E35" s="3">
         <v>224000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>202000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>254000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>267000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>218000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>198000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>179100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>181500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>185600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>66000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>80600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>112600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>406200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>98400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>310400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>286600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1077000</v>
+      </c>
+      <c r="E41" s="3">
         <v>626000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>633000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>850000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>690000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>755000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>757000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>742600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>537800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>673800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>480200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="3">
         <v>490600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="3">
         <v>561500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>386600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2090000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1889000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1938000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1864000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1775000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1681000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1673000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1615900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1730500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1669100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1789500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1315600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="3">
         <v>1405200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1385100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2273000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2113000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1991000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1876000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1843000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1784000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1831900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1819800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1891800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1874400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1387000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="3">
         <v>1305500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1258600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E45" s="3">
         <v>603000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>595000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>561000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>429000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>434000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>398000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>344300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>414100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>452900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>418100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="3">
         <v>24600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="3">
         <v>14300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6170000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5391000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5279000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5266000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4770000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4713000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4612000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4534700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4502200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4687600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4562200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="3">
         <v>3217800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="3">
         <v>3286500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3043300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2661,8 +2766,8 @@
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2674,152 +2779,161 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>77700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>108600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>96800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>103100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="3">
         <v>438700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3">
         <v>411900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>424900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4311000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4236000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4221000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4293000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4198000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4286000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4153000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4140100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4158800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4310800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4438800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2623900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="3">
         <v>2765300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2684100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7088000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7119000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7177000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7254000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7267000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7357000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7333000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7333600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7264300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7340400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7240300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2361400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S49" s="3">
         <v>2409300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2248700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E52" s="3">
         <v>392000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>367000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>375000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>357000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>362000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>367000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>356000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>387100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>397000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>386300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="3">
         <v>226200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S52" s="3">
         <v>210300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>220500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17987000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17138000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17044000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17188000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16592000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16718000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16465000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16442100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16421000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16832600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16730700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="3">
         <v>8868000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54" s="3">
         <v>9083300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8621500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3180,306 +3311,324 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2472500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S57" s="3">
         <v>2607900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2202000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E58" s="3">
         <v>121000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>68000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>103000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>107000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>238000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>206300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>312800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>357200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>317800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1481400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S58" s="3">
         <v>1124600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>998100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4352000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4172000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3949000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4242000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3563000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3625000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3388000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3767300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3339100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3410200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3521800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="3">
         <v>238600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S59" s="3">
         <v>301700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>203900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4424000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4293000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4017000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4345000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3670000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3678000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3626000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3973600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3651900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3767400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3839600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4192500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S60" s="3">
         <v>4034200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3404000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7177000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6548000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6524000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6186000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6497000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6432000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6361000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6028400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6208800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5853500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5454800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3032200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3486400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3673700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1809000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1778000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1798000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1836000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1720000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1760000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1734000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1753000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1757500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1808800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1944900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="3">
         <v>585800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S62" s="3">
         <v>693000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>701700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13470000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12676000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12394000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12424000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11945000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11926000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11778000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11816200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11681400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11492900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11306500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="3">
         <v>7874900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66" s="3">
         <v>8283200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7843400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E72" s="3">
         <v>515000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>473000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>452000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>378000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>293000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>258000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>246500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>254700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>254400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>252300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-428800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S72" s="3">
         <v>-616800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-687000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4517000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4462000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4650000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4764000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4647000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4792000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4687000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4625900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4739600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5339700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5424200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="3">
         <v>993100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S76" s="3">
         <v>800100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>778100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E81" s="3">
         <v>224000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>202000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>254000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>267000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>218000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>198000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>179100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>181500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>185600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>66000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>80600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>112600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>406200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>98400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>310400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>286600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E83" s="3">
         <v>155000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>177000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>148000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>139000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>142000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>145000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>152300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>167500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>147500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>184300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>183400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>77300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>106300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>86000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>202400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>185300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E89" s="3">
         <v>435000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-112000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>844000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>175000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>552000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-110000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>913900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>128300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>431400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-89400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>613100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-113300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>540500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-305800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>812500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>214900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-110000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-145000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-133000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-117000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-104000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-114000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-86800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-106100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-91200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-115400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-81300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-78900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-112800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-175400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-203800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-120000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-145000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-118000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-39000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-103000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>27000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-78500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-77600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-90100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>284100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>194000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-70900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-105800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-173700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-458900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-185000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-183000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-186000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-182000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-186000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-188000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-187300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-183200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-388200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-231100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-258000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-302000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>67000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-578000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-192000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-485000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>76000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-646500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-147800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-135900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-306200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-767300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>232300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-384200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>154300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-476400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>139400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-20000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-27000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>34000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>21000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-38900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-30600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-217000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>160000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-65000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>204800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-136000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>193600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-121400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>52900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>58000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>136500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-266600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>179500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-135200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>AMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3909000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3708000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3507000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3420000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3454000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3207000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3103000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3097000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3142700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3141000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3043100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3140700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2602900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2309900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6837200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2262400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4633700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4467300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3115000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2977000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2862000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2770000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2709000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2525000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2452000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2443000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2423200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2489000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2425800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2594000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2068000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1890100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5535000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1868600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3651600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3537600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>794000</v>
+      </c>
+      <c r="E10" s="3">
         <v>731000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>645000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>650000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>745000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>682000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>651000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>654000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>719500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>652000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>617300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>546700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>534900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>419800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1302200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>393800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>982100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>929700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,58 +973,61 @@
         <v>24000</v>
       </c>
       <c r="E12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F12" s="3">
         <v>23000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>47500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>35800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>33300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>72000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-24000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>23000</v>
       </c>
       <c r="J14" s="3">
         <v>23000</v>
       </c>
       <c r="K14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="L14" s="3">
         <v>53300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>24100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>69900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>44900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3339000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3185000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3124000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3089000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2834000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2796000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2821000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2832800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2869800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2770800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2391300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2128600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6179900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2084900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4149300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3999000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E18" s="3">
         <v>369000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>322000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>296000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>365000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>373000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>307000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>276000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>309900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>271200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>272300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>140600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>211600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>181300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>657300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>177500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>484400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>468300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>10700</v>
       </c>
       <c r="M20" s="3">
         <v>10700</v>
       </c>
       <c r="N20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="O20" s="3">
         <v>14300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-96800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-93200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-93800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E21" s="3">
         <v>526000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>484000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>483000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>521000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>516000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>456000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>427000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>464600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>449400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>430500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>339200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>399500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>268500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>661500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>263800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>593600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>559800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="3">
         <v>36000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>39000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>40000</v>
       </c>
       <c r="G22" s="3">
         <v>40000</v>
       </c>
       <c r="H22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="I22" s="3">
         <v>36000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>51100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>52100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>56300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E23" s="3">
         <v>343000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>290000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>266000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>333000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>341000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>277000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>242000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>263200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>236100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>230700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>95200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>167500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>134800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>508400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>121500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>391200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>374500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E24" s="3">
         <v>72000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>61000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>63000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>74000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>71000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>61000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>90700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>86500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>71100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>80600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E26" s="3">
         <v>271000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>229000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>203000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>259000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>270000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>222000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>181000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>199300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>180000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>185600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>73400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>76800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>106800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>421900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>99800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>320100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>293900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E27" s="3">
         <v>268000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>224000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>202000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>254000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>267000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>218000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>198000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>181500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>185600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>73700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>112600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>406200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>98400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>310400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>286600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,13 +1936,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -1892,8 +1953,8 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1914,22 +1975,22 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-7700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>700</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-10700</v>
       </c>
       <c r="M32" s="3">
         <v>-10700</v>
       </c>
       <c r="N32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="O32" s="3">
         <v>-14300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>96800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>93200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>93800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E33" s="3">
         <v>268000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>224000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>202000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>254000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>267000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>218000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>198000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>179100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>181500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>185600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>66000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>80600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>112600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>406200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>98400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>310400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>286600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E35" s="3">
         <v>268000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>224000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>202000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>254000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>267000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>218000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>198000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>179100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>181500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>185600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>66000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>80600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>112600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>406200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>98400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>310400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>286600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1077000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>626000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>633000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>850000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>690000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>755000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>757000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>742600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>537800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>673800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>480200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" s="3">
         <v>490600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="3">
         <v>561500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>386600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,255 +2609,270 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2090000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1889000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1938000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1864000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1775000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1681000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1673000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1615900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1730500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1669100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1789500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="3">
         <v>1315600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="3">
         <v>1405200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1385100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2439000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2420000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2273000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2113000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1991000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1876000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1843000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1784000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1831900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1819800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1891800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1874400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="3">
         <v>1387000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T44" s="3">
         <v>1305500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1258600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E45" s="3">
         <v>583000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>603000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>595000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>561000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>429000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>434000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>398000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>344300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>414100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>452900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>418100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" s="3">
         <v>24600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3">
         <v>14300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5853000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6170000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5391000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5279000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5266000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4770000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4713000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4612000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4534700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4502200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4687600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4562200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="3">
         <v>3217800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="3">
         <v>3286500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3043300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2782,158 +2887,167 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>77700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>108600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>96800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>103100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="3">
         <v>438700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3">
         <v>411900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>424900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4206000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4311000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4236000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4221000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4293000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4198000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4286000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4153000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4140100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4158800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4310800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4438800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="3">
         <v>2623900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3">
         <v>2765300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2684100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6942000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7088000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7119000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7177000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7254000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7267000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7357000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7333000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7333600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7264300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7340400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7240300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R49" s="3">
         <v>2361400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" s="3">
         <v>2409300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2248700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E52" s="3">
         <v>418000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>392000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>367000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>375000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>357000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>362000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>367000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>356000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>387100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>397000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>386300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="3">
         <v>226200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="3">
         <v>210300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>220500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17426000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17987000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17138000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17044000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17188000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16592000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16718000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16465000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16442100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16421000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16832600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16730700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R54" s="3">
         <v>8868000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="3">
         <v>9083300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8621500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3314,321 +3445,339 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="3">
         <v>2472500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T57" s="3">
         <v>2607900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2202000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E58" s="3">
         <v>72000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>121000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>68000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>103000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>107000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>53000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>238000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>206300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>312800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>357200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>317800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R58" s="3">
         <v>1481400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T58" s="3">
         <v>1124600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>998100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4953000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4352000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4172000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3949000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4242000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3563000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3625000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3388000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3767300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3339100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3410200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3521800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R59" s="3">
         <v>238600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T59" s="3">
         <v>301700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>203900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5103000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4424000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4293000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4017000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4345000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3670000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3678000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3626000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3973600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3651900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3767400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3839600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R60" s="3">
         <v>4192500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T60" s="3">
         <v>4034200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3404000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6340000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7177000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6548000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6524000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6186000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6497000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6432000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6361000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6028400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6208800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5853500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5454800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3032200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3486400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3673700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1842000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1809000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1778000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1798000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1836000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1720000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1760000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1734000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1753000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1757500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1808800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1944900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="3">
         <v>585800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T62" s="3">
         <v>693000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>701700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13344000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13470000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12676000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12394000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12424000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11945000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11926000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11778000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11816200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11681400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11492900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11306500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="3">
         <v>7874900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T66" s="3">
         <v>8283200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7843400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E72" s="3">
         <v>604000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>515000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>473000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>452000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>378000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>293000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>258000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>246500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>254700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>254400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>252300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="3">
         <v>-428800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72" s="3">
         <v>-616800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-687000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4082000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4517000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4462000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4650000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4764000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4647000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4792000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4687000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4625900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4739600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5339700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5424200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="3">
         <v>993100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T76" s="3">
         <v>800100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>778100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E81" s="3">
         <v>268000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>224000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>202000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>254000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>267000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>218000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>198000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>179100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>181500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>185600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>66000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>80600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>112600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>406200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>98400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>310400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>286600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E83" s="3">
         <v>147000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>155000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>177000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>148000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>139000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>142000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>145000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>152300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>167500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>147500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>184300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>183400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>77300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>106300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>86000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>202400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>185300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E89" s="3">
         <v>266000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>435000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-112000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>844000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>175000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>552000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-110000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>913900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>128300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>431400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-89400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>613100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-113300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>540500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-305800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>812500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>214900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-118000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-110000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-145000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-133000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-117000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-104000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-114000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-86800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-106100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-91200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-115400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-81300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-78900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-112800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-175400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-203800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-118000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-120000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-145000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-118000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-39000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-103000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>27000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-78500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-77600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>284100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>194000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-70900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-105800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-173700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-458900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5326,58 +5560,61 @@
         <v>-182000</v>
       </c>
       <c r="E96" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-185000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-183000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-186000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-182000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-186000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-188000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-187300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-183200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-388200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-231100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-258000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-943000</v>
+      </c>
+      <c r="E100" s="3">
         <v>287000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-302000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>67000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-578000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-192000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-485000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>76000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-646500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-147800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-135900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-306200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-767300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>232300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-384200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>154300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-476400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>139400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E101" s="3">
         <v>16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-20000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-27000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>34000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>21000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-38900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>17100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-30600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-302000</v>
+      </c>
+      <c r="E102" s="3">
         <v>451000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-217000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>160000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-65000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>204800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-136000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>193600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-121400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>52900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>58000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>136500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-266600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>179500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-135200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>AMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3712000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3909000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3708000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3507000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3420000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3454000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3207000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3103000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3097000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3142700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3141000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3043100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3140700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2602900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2309900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6837200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2262400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4633700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4467300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3044000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3115000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2977000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2862000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2770000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2709000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2525000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2452000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2443000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2423200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2489000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2425800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2594000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2068000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1890100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5535000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1868600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3651600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3537600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E10" s="3">
         <v>794000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>731000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>645000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>650000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>745000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>682000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>651000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>654000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>719500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>652000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>617300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>546700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>534900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>419800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1302200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>393800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>982100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>929700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="E12" s="3">
         <v>24000</v>
       </c>
       <c r="F12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G12" s="3">
         <v>23000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>47500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>35800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>33300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,70 +1105,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>207000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>72000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-24000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>23000</v>
       </c>
       <c r="K14" s="3">
         <v>23000</v>
       </c>
       <c r="L14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="M14" s="3">
         <v>53300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>24100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>69900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>44900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3370000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3657000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3339000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3185000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3124000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3089000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2834000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2796000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2821000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2832800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2869800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2770800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2391300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2128600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6179900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2084900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4149300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3999000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E18" s="3">
         <v>252000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>369000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>322000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>296000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>365000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>373000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>307000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>276000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>309900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>271200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>272300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>140600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>211600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>181300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>657300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>177500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>484400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>468300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>10700</v>
       </c>
       <c r="N20" s="3">
         <v>10700</v>
       </c>
       <c r="O20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="P20" s="3">
         <v>14300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-96800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-93200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-93800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E21" s="3">
         <v>406000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>526000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>484000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>483000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>521000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>516000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>456000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>427000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>464600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>449400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>430500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>339200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>399500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>268500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>661500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>263800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>593600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>559800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E22" s="3">
         <v>44000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>36000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>39000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>40000</v>
       </c>
       <c r="H22" s="3">
         <v>40000</v>
       </c>
       <c r="I22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J22" s="3">
         <v>36000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>37000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>49100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>48600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>51100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>52100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>56300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E23" s="3">
         <v>216000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>343000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>290000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>266000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>333000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>341000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>277000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>242000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>263200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>236100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>230700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>95200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>167500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>134800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>508400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>121500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>391200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>374500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E24" s="3">
         <v>104000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>72000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>61000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>63000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>74000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>71000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>90700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>86500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>71100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>80600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E26" s="3">
         <v>112000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>271000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>229000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>203000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>259000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>270000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>222000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>181000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>199300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>180000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>185600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>73400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>76800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>106800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>421900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>99800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>320100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>293900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E27" s="3">
         <v>108000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>268000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>224000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>202000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>254000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>267000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>218000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>198000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>179100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>181500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>185600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>73700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>79900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>112600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>406200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>98400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>310400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>286600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,16 +1997,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1956,8 +2017,8 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1978,22 +2039,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-7700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>700</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-10700</v>
       </c>
       <c r="N32" s="3">
         <v>-10700</v>
       </c>
       <c r="O32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="P32" s="3">
         <v>-14300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>96800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>93200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>93800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E33" s="3">
         <v>108000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>268000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>224000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>202000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>254000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>267000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>218000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>198000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>179100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>181500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>185600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>66000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>80600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>112600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>406200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>98400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>310400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>286600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E35" s="3">
         <v>108000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>268000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>224000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>202000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>254000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>267000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>218000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>198000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>179100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>181500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>185600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>66000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>80600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>112600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>406200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>98400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>310400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>286600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>562000</v>
+      </c>
+      <c r="E41" s="3">
         <v>775000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1077000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>626000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>633000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>850000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>690000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>755000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>757000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>742600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>537800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>673800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>480200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="3">
         <v>490600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U41" s="3">
         <v>561500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>386600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2702,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1984000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1935000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2090000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1889000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1938000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1864000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1775000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1681000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1673000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1615900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1730500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1669100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1789500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="3">
         <v>1315600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U43" s="3">
         <v>1405200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1385100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2590000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2439000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2420000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2273000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2113000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1991000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1876000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1843000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1784000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1831900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1819800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1891800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1874400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="3">
         <v>1387000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U44" s="3">
         <v>1305500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1258600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E45" s="3">
         <v>704000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>583000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>603000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>595000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>561000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>429000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>434000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>398000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>344300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>414100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>452900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>418100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="3">
         <v>24600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U45" s="3">
         <v>14300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5849000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5853000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6170000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5391000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5279000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5266000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4770000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4713000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4612000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4534700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4502200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4687600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4562200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="3">
         <v>3217800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U46" s="3">
         <v>3286500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3043300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2890,164 +2995,173 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>77700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>108600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>96800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>103100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3">
         <v>438700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U47" s="3">
         <v>411900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>424900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4125000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4206000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4311000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4236000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4221000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4293000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4198000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4286000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4153000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4140100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4158800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4310800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4438800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="3">
         <v>2623900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U48" s="3">
         <v>2765300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2684100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6846000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6942000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7088000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7119000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7177000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7254000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7267000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7357000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7333000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7333600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7264300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7340400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7240300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S49" s="3">
         <v>2361400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U49" s="3">
         <v>2409300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2248700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E52" s="3">
         <v>425000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>418000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>392000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>367000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>375000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>357000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>362000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>367000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>356000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>387100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>397000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>386300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S52" s="3">
         <v>226200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U52" s="3">
         <v>210300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>220500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17292000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17426000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17987000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17138000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17044000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17188000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16592000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16718000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16465000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16442100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16421000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16832600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16730700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54" s="3">
         <v>8868000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U54" s="3">
         <v>9083300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8621500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3448,336 +3579,354 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S57" s="3">
         <v>2472500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U57" s="3">
         <v>2607900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2202000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E58" s="3">
         <v>150000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>72000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>121000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>68000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>103000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>107000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>53000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>238000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>206300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>312800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>357200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>317800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S58" s="3">
         <v>1481400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U58" s="3">
         <v>1124600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>998100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4513000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4953000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4352000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4172000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3949000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4242000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3563000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3625000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3388000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3767300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3339100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3410200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3521800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S59" s="3">
         <v>238600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U59" s="3">
         <v>301700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>203900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4589000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5103000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4424000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4293000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4017000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4345000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3670000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3678000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3626000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3973600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3651900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3767400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3839600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S60" s="3">
         <v>4192500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U60" s="3">
         <v>4034200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3404000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6879000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6340000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7177000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6548000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6524000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6186000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6497000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6432000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6361000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6028400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6208800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5853500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5454800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3032200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>3486400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3673700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1842000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1809000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1778000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1798000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1836000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1720000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1760000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1734000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1753000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1757500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1808800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1944900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S62" s="3">
         <v>585800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="3">
         <v>693000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>701700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13374000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13344000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13470000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12676000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12394000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12424000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11945000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11926000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11778000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11816200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11681400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11492900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11306500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66" s="3">
         <v>7874900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U66" s="3">
         <v>8283200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7843400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>588000</v>
+      </c>
+      <c r="E72" s="3">
         <v>534000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>604000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>515000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>473000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>452000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>378000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>293000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>258000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>246500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>254700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>254400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>252300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S72" s="3">
         <v>-428800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U72" s="3">
         <v>-616800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-687000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3918000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4082000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4517000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4462000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4650000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4764000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4647000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4792000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4687000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4625900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4739600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5339700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5424200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S76" s="3">
         <v>993100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U76" s="3">
         <v>800100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>778100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E81" s="3">
         <v>108000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>268000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>224000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>202000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>254000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>267000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>218000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>198000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>179100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>181500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>185600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>66000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>80600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>112600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>406200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>98400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>310400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>286600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E83" s="3">
         <v>146000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>147000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>155000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>177000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>148000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>139000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>142000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>152300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>167500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>147500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>184300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>183400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>106300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>86000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>202400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>185300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-239000</v>
+      </c>
+      <c r="E89" s="3">
         <v>862000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>266000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>435000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-112000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>844000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>175000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>552000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-110000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>913900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>128300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>431400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-89400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>613100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-113300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>540500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-305800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>812500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>214900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-154000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-118000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-110000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-145000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-133000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-117000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-104000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-114000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-86800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-106100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-91200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-115400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-81300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-78900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-59200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-112800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-175400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-203800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-240000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-144000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-118000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-120000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-145000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-118000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-39000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-103000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>27000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-77600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-90100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>284100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>194000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-105800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-173700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-458900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5784,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-182000</v>
+        <v>-181000</v>
       </c>
       <c r="E96" s="3">
         <v>-182000</v>
       </c>
       <c r="F96" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-185000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-183000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-186000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-182000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-186000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-188000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-187300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-183200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-388200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-231100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-258000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-943000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>287000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-302000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>67000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-578000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-192000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-485000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>76000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-646500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-147800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-135900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-306200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-767300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>232300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-384200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>154300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-476400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>139400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-77000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-27000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>34000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>21000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-38900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>17100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-30600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-302000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>451000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-217000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>160000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-65000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>204800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-136000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>193600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-121400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>52900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>136500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-266600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>179500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-135200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>AMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3642000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3712000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3909000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3708000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3507000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3420000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3454000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3207000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3103000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3097000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3142700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3141000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3043100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3140700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2602900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2309900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6837200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2262400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4633700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4467300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3044000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3115000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2977000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2862000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2770000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2709000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2525000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2452000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2443000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2423200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2489000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2425800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2594000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2068000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1890100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5535000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1868600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3651600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3537600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E10" s="3">
         <v>668000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>794000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>731000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>645000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>650000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>745000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>682000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>651000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>654000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>719500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>652000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>617300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>546700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>534900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>419800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1302200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>393800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>982100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>929700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>24000</v>
       </c>
       <c r="F12" s="3">
         <v>24000</v>
       </c>
       <c r="G12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="H12" s="3">
         <v>23000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>47500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>35800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>33300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,64 +1124,67 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>207000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>72000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-24000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>23000</v>
       </c>
       <c r="L14" s="3">
         <v>23000</v>
       </c>
       <c r="M14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="N14" s="3">
         <v>53300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>24100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>69900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>44900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12500</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3083000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3370000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3657000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3339000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3185000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3124000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3089000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2834000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2796000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2821000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2832800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2869800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2770800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2391300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2128600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6179900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2084900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4149300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3999000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E18" s="3">
         <v>342000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>252000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>369000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>322000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>296000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>365000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>373000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>307000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>276000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>309900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>271200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>272300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>140600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>211600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>181300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>657300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>177500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>484400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>468300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,194 +1447,201 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>10700</v>
       </c>
       <c r="O20" s="3">
         <v>10700</v>
       </c>
       <c r="P20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>14300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-96800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-93200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-93800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>706000</v>
+      </c>
+      <c r="E21" s="3">
         <v>502000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>406000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>526000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>484000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>483000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>521000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>516000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>456000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>427000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>464600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>449400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>430500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>339200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>399500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>268500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>661500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>263800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>593600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>559800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E22" s="3">
         <v>59000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>44000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>36000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>39000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>40000</v>
       </c>
       <c r="I22" s="3">
         <v>40000</v>
       </c>
       <c r="J22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K22" s="3">
         <v>36000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>59700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>48600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>51100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>52100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>56300</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>10</v>
@@ -1610,138 +1649,147 @@
       <c r="W22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E23" s="3">
         <v>292000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>216000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>343000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>290000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>266000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>333000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>341000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>277000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>242000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>263200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>236100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>230700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>95200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>167500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>134800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>508400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>121500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>391200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>374500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E24" s="3">
         <v>58000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>104000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>72000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>61000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>63000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>74000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>71000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>61000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>90700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>86500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>71100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>80600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E26" s="3">
         <v>234000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>112000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>271000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>229000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>203000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>259000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>270000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>222000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>181000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>199300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>180000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>185600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>73400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>76800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>106800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>421900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>99800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>320100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>293900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E27" s="3">
         <v>230000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>108000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>268000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>224000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>202000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>254000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>267000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>218000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>198000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>179100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>181500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>185600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>73700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>79900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>112600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>406200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>98400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>310400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>286600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,25 +2057,28 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2042,22 +2102,22 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>700</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-10700</v>
       </c>
       <c r="O32" s="3">
         <v>-10700</v>
       </c>
       <c r="P32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>96800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>93200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>93800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E33" s="3">
         <v>230000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>108000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>268000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>224000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>202000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>254000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>267000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>218000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>198000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>179100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>181500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>185600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>66000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>80600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>112600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>406200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>98400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>310400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>286600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E35" s="3">
         <v>230000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>108000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>268000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>224000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>202000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>254000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>267000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>218000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>198000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>179100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>181500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>185600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>66000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>80600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>112600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>406200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>98400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>310400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>286600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>837000</v>
+      </c>
+      <c r="E41" s="3">
         <v>562000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>775000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1077000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>626000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>633000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>850000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>690000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>755000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>757000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>742600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>537800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>673800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>480200</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="3">
         <v>490600</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>561500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>386600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1972000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1984000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1935000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2090000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1889000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1938000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1864000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1775000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1681000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1673000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1615900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1730500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1669100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1789500</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="3">
         <v>1315600</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1405200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1385100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2509000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2590000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2439000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2420000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2273000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2113000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1991000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1876000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1843000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1784000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1831900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1819800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1891800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1874400</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T44" s="3">
         <v>1387000</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1305500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1258600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>545000</v>
+      </c>
+      <c r="E45" s="3">
         <v>713000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>704000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>583000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>603000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>595000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>561000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>429000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>434000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>398000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>344300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>414100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>452900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>418100</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3">
         <v>24600</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5863000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5849000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5853000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6170000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5391000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5279000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5266000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4770000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4713000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4612000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4534700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4502200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4687600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4562200</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="3">
         <v>3217800</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3286500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3043300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2998,170 +3102,179 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>77700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>108600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>96800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>103100</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3">
         <v>438700</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>411900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>424900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4230000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4125000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4206000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4311000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4236000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4221000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4293000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4198000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4286000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4153000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4140100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4158800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4310800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4438800</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3">
         <v>2623900</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2765300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2684100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6858000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6846000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6942000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7088000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7119000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7177000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7254000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7267000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7357000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7333000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7333600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7264300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7340400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7240300</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" s="3">
         <v>2361400</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2409300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2248700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E52" s="3">
         <v>472000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>425000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>418000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>392000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>367000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>375000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>357000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>362000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>367000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>356000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>387100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>397000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>386300</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="3">
         <v>226200</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>210300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>220500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17475000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17292000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17426000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17987000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17138000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17044000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17188000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16592000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16718000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16465000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16442100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16421000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16832600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16730700</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="3">
         <v>8868000</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9083300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8621500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3582,351 +3712,369 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2472500</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2607900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2202000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E58" s="3">
         <v>76000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>150000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>72000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>121000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>68000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>103000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>107000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>238000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>206300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>312800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>357200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>317800</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T58" s="3">
         <v>1481400</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1124600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>998100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4331000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4513000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4953000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4352000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4172000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3949000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4242000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3563000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3625000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3388000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3767300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3339100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3410200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3521800</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T59" s="3">
         <v>238600</v>
       </c>
-      <c r="T59" s="3" t="s">
+      <c r="U59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>301700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>203900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4393000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4589000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5103000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4424000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4293000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4017000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4345000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3670000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3678000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3626000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3973600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3651900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3767400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3839600</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T60" s="3">
         <v>4192500</v>
       </c>
-      <c r="T60" s="3" t="s">
+      <c r="U60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4034200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3404000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6840000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6879000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6340000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7177000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6548000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6524000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6186000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6497000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6432000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6361000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6028400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6208800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5853500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5454800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3032200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>3486400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3673700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1831000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1848000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1842000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1809000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1778000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1798000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1836000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1720000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1760000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1734000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1753000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1757500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1808800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1944900</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T62" s="3">
         <v>585800</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>693000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>701700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13122000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13374000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13344000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13470000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12676000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12394000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12424000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11945000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11926000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11778000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11816200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11681400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11492900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11306500</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T66" s="3">
         <v>7874900</v>
       </c>
-      <c r="T66" s="3" t="s">
+      <c r="U66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8283200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7843400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>866000</v>
+      </c>
+      <c r="E72" s="3">
         <v>588000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>534000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>604000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>515000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>473000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>452000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>378000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>293000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>258000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>246500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>254700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>254400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>252300</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72" s="3">
         <v>-428800</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-616800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-687000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4353000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3918000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4082000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4517000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4462000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4650000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4764000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4647000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4792000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4687000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4625900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4739600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5339700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5424200</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T76" s="3">
         <v>993100</v>
       </c>
-      <c r="T76" s="3" t="s">
+      <c r="U76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>800100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>778100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E81" s="3">
         <v>230000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>108000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>268000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>224000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>202000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>254000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>267000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>218000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>198000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>179100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>181500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>185600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>66000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>80600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>112600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>406200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>98400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>310400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>286600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E83" s="3">
         <v>151000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>146000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>147000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>155000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>177000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>148000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>139000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>142000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>145000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>152300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>167500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>147500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>184300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>183400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>77300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>106300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>86000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>202400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>185300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-239000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>862000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>266000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>435000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-112000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>844000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>175000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>552000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-110000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>913900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>128300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>431400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>613100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-113300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>540500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-305800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>812500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>214900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-152000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-154000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-118000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-110000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-145000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-133000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-117000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-104000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-114000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-86800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-106100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-91200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-115400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-81300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-78900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-59200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-112800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-175400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-203800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-240000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-144000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-118000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-120000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-145000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-118000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-39000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>27000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-78500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-77600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-90100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>284100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>194000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-70900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-105800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-173700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-458900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-184000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-181000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-182000</v>
       </c>
       <c r="F96" s="3">
         <v>-182000</v>
       </c>
       <c r="G96" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-185000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-183000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-186000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-182000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-186000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-188000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-187300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-183200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-388200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-231100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-258000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E100" s="3">
         <v>326000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-943000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>287000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-302000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>67000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-578000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-192000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-485000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>76000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-646500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-147800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-135900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-306200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-767300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>232300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-384200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>154300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-476400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>139400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-60000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-77000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-27000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>34000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>21000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-38900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>17100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-30600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-213000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-302000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>451000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-217000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>160000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-65000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>204800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-136000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>193600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-121400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>52900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>136500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-266600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>179500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-135200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3667000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3642000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3712000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3909000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3708000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3507000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3420000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3454000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3207000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3103000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3097000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3142700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3141000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3043100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3140700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2602900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2309900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6837200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2262400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4633700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4467300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2994000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2980000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3044000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3115000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2977000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2862000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2770000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2709000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2525000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2452000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2443000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2423200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2489000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2425800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2594000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2068000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1890100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5535000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1868600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3651600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3537600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E10" s="3">
         <v>662000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>668000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>794000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>731000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>645000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>650000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>745000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>682000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>651000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>654000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>719500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>652000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>617300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>546700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>534900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>419800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1302200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>393800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>982100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>929700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E12" s="3">
         <v>24000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>24000</v>
       </c>
       <c r="G12" s="3">
         <v>24000</v>
       </c>
       <c r="H12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I12" s="3">
         <v>23000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>47500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>35800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>33300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,67 +1144,70 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-213000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>207000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>72000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-24000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>23000</v>
       </c>
       <c r="M14" s="3">
         <v>23000</v>
       </c>
       <c r="N14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="O14" s="3">
         <v>53300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>20100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>24100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>69900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>44900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12500</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3385000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3083000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3370000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3657000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3339000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3185000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3124000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3089000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2834000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2796000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2821000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2832800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2869800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2770800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3000100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2391300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2128600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6179900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2084900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4149300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3999000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E18" s="3">
         <v>559000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>342000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>252000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>369000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>322000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>296000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>365000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>373000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>307000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>276000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>309900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>271200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>272300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>140600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>211600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>181300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>657300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>177500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>484400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>468300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,203 +1481,210 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E20" s="3">
         <v>14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>10700</v>
       </c>
       <c r="P20" s="3">
         <v>10700</v>
       </c>
       <c r="Q20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="R20" s="3">
         <v>14300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-96800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-93200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-93800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E21" s="3">
         <v>706000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>502000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>406000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>526000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>484000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>483000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>521000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>516000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>456000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>427000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>464600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>449400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>430500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>339200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>399500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>268500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>661500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>263800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>593600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>559800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E22" s="3">
         <v>79000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>59000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>44000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>36000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>39000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>40000</v>
       </c>
       <c r="J22" s="3">
         <v>40000</v>
       </c>
       <c r="K22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="L22" s="3">
         <v>36000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>59700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>48600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>51100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>52100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>56300</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>10</v>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E23" s="3">
         <v>494000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>292000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>216000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>343000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>290000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>266000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>333000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>341000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>277000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>242000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>263200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>236100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>230700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>95200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>167500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>134800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>508400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>121500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>391200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>374500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E24" s="3">
         <v>33000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>58000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>104000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>72000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>61000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>63000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>74000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>71000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>61000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>45100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>90700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>86500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>71100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>80600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E26" s="3">
         <v>461000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>234000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>112000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>271000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>229000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>203000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>259000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>270000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>222000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>199300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>180000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>185600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>73400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>106800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>421900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>99800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>320100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>293900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E27" s="3">
         <v>456000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>230000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>108000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>268000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>224000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>202000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>254000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>267000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>218000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>198000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>179100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>181500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>185600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>73700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>79900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>112600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>406200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>98400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>310400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>286600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2105,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-7700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>700</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-10700</v>
       </c>
       <c r="P32" s="3">
         <v>-10700</v>
       </c>
       <c r="Q32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="R32" s="3">
         <v>-14300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>96800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>93200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>93800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E33" s="3">
         <v>456000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>230000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>108000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>268000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>224000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>202000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>254000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>267000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>218000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>198000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>179100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>181500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>185600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>66000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>80600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>112600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>406200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>98400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>310400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>286600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E35" s="3">
         <v>456000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>230000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>108000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>268000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>224000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>202000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>254000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>267000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>218000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>198000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>179100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>181500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>185600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>66000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>80600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>112600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>406200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>98400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>310400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>286600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>564000</v>
+      </c>
+      <c r="E41" s="3">
         <v>837000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>562000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>775000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1077000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>626000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>633000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>850000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>690000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>755000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>757000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>742600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>537800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>673800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>480200</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U41" s="3">
         <v>490600</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="V41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>561500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>386600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2887,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2034000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1972000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1984000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1935000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2090000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1889000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1938000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1864000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1775000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1681000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1673000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1615900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1730500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1669100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1789500</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U43" s="3">
         <v>1315600</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1405200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1385100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2509000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2590000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2439000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2420000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2273000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2113000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1991000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1876000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1843000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1784000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1831900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1819800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1891800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1874400</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U44" s="3">
         <v>1387000</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1305500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1258600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E45" s="3">
         <v>545000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>713000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>704000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>583000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>603000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>595000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>561000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>429000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>434000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>398000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>344300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>414100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>452900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>418100</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U45" s="3">
         <v>24600</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>14300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>13000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5588000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5863000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5849000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5853000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6170000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5391000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5279000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5266000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4770000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4713000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4612000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4534700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4502200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4687600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4562200</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U46" s="3">
         <v>3217800</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3286500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3043300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3105,176 +3210,185 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>77700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>108600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>96800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>103100</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U47" s="3">
         <v>438700</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>411900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>424900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4275000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4230000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4125000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4206000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4311000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4236000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4221000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4293000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4198000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4286000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4153000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4140100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4158800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4310800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4438800</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U48" s="3">
         <v>2623900</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2765300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2684100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6886000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6858000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6846000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6942000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7088000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7119000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7177000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7254000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7267000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7357000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7333000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7333600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7264300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7340400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7240300</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U49" s="3">
         <v>2361400</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2409300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2248700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E52" s="3">
         <v>524000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>472000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>425000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>418000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>392000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>367000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>375000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>357000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>362000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>367000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>356000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>387100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>397000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>386300</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U52" s="3">
         <v>226200</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="V52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>210300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>220500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17278000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17475000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17292000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17426000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17987000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17138000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17044000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17188000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16592000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16718000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16465000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16442100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16421000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16832600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16730700</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U54" s="3">
         <v>8868000</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="V54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9083300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8621500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3715,366 +3846,384 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2472500</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2607900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2202000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E58" s="3">
         <v>62000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>76000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>150000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>72000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>121000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>68000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>103000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>107000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>238000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>206300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>312800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>357200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>317800</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U58" s="3">
         <v>1481400</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1124600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>998100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4199000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4331000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4513000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4953000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4352000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4172000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3949000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4242000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3563000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3625000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3388000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3767300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3339100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3410200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3521800</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U59" s="3">
         <v>238600</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="V59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>301700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>203900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4408000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4393000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4589000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5103000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4424000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4293000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4017000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4345000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3670000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3678000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3626000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3973600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3651900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3767400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3839600</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U60" s="3">
         <v>4192500</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="V60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4034200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3404000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6804000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6840000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6879000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6340000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7177000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6548000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6524000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6186000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6497000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6432000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6361000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6028400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6208800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5853500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5454800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>3032200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>3486400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3673700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1758000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1831000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1848000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1842000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1809000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1778000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1798000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1836000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1720000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1760000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1734000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1753000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1757500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1808800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1944900</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="3">
         <v>585800</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>693000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>701700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13030000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13122000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13374000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13344000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13470000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12676000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12394000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12424000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11945000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11926000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11778000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11816200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11681400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11492900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11306500</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U66" s="3">
         <v>7874900</v>
       </c>
-      <c r="U66" s="3" t="s">
+      <c r="V66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8283200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7843400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>863000</v>
+      </c>
+      <c r="E72" s="3">
         <v>866000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>588000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>534000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>604000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>515000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>473000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>452000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>378000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>293000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>258000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>246500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>254700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>254400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>252300</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U72" s="3">
         <v>-428800</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-616800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-687000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4248000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4353000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3918000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4082000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4517000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4462000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4650000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4764000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4647000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4792000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4687000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4625900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4739600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5339700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5424200</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U76" s="3">
         <v>993100</v>
       </c>
-      <c r="U76" s="3" t="s">
+      <c r="V76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>800100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>778100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E81" s="3">
         <v>456000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>230000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>108000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>268000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>224000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>202000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>254000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>267000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>218000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>198000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>179100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>181500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>185600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>66000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>80600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>112600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>406200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>98400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>310400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>286600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E83" s="3">
         <v>133000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>151000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>146000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>147000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>155000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>177000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>148000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>142000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>145000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>152300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>167500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>147500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>184300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>183400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>77300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>106300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>86000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>202400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>185300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E89" s="3">
         <v>384000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-239000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>862000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>266000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>435000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-112000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>844000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>175000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>552000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-110000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>913900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>128300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>431400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-89400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>613100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-113300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>540500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-305800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>812500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>214900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-98000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-152000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-154000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-118000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-110000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-145000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-133000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-117000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-104000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-114000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-86800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-106100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-91200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-115400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-81300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-78900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-59200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-112800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-175400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-203800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="E94" s="3">
         <v>264000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-240000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-144000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-118000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-120000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-145000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-118000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-103000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>27000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-78500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-77600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-90100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>284100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>194000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-70900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-105800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-173700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-458900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6251,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-184000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-181000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-182000</v>
       </c>
       <c r="G96" s="3">
         <v>-182000</v>
       </c>
       <c r="H96" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-185000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-183000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-186000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-182000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-186000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-188000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-187300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-183200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-388200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-231100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-258000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-416000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>326000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-943000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>287000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-302000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>67000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-578000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-192000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-485000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>76000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-646500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-147800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-135900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-306200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-767300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>232300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-384200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>154300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-476400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>139400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-32000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-60000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-77000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-27000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>34000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>21000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-38900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-9300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>17100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-30600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="E102" s="3">
         <v>200000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-213000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-302000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>451000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-217000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>160000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-65000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>204800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-136000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>193600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-121400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>52900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>58000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>136500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-266600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>179500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-135200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3673000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3667000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3642000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3712000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3909000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3708000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3507000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3420000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3454000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3207000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3103000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3097000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3142700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3141000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3043100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3140700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2602900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2309900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6837200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2262400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4633700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4467300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2951000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2994000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2980000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3044000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3115000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2977000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2862000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2770000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2709000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2525000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2452000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2443000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2423200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2489000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2425800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2594000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2068000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1890100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5535000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1868600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3651600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3537600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E10" s="3">
         <v>673000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>662000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>668000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>794000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>731000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>645000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>650000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>745000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>682000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>651000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>654000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>719500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>652000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>617300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>546700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>534900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>419800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1302200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>393800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>982100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>929700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
         <v>27000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>24000</v>
       </c>
       <c r="H12" s="3">
         <v>24000</v>
       </c>
       <c r="I12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="J12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>25900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>47500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>35800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>33300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,70 +1164,73 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E14" s="3">
         <v>50000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-213000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>207000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>72000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-24000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>23000</v>
       </c>
       <c r="N14" s="3">
         <v>23000</v>
       </c>
       <c r="O14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="P14" s="3">
         <v>53300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>24100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>69900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>44900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12500</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3348000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3385000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3083000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3370000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3657000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3339000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3185000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3124000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3089000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2834000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2796000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2821000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2832800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2869800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2770800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2391300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2128600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6179900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2084900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4149300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3999000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E18" s="3">
         <v>282000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>559000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>342000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>252000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>369000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>322000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>296000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>365000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>373000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>307000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>276000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>309900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>271200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>272300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>140600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>211600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>181300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>657300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>177500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>484400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>468300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,212 +1515,219 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>17000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>10700</v>
       </c>
       <c r="Q20" s="3">
         <v>10700</v>
       </c>
       <c r="R20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="S20" s="3">
         <v>14300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-96800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-93200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-93800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E21" s="3">
         <v>443000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>706000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>502000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>406000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>526000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>484000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>483000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>521000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>516000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>456000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>427000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>464600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>449400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>430500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>339200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>399500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>268500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>661500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>263800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>593600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>559800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E22" s="3">
         <v>86000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>79000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>59000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>36000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>39000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>40000</v>
       </c>
       <c r="K22" s="3">
         <v>40000</v>
       </c>
       <c r="L22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="M22" s="3">
         <v>36000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>49100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>52300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>59700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>48600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>51100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>52100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>56300</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>10</v>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E23" s="3">
         <v>213000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>494000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>292000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>216000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>343000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>290000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>266000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>333000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>341000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>277000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>242000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>263200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>236100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>230700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>95200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>167500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>134800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>508400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>121500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>391200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>374500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E24" s="3">
         <v>34000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>33000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>58000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>104000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>72000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>61000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>63000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>71000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>61000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>63900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>56100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>45100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>90700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>86500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>71100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>80600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E26" s="3">
         <v>179000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>461000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>234000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>112000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>271000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>229000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>203000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>259000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>270000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>222000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>199300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>180000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>185600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>73400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>76800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>106800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>421900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>99800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>320100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>293900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E27" s="3">
         <v>176000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>456000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>230000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>108000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>268000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>224000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>202000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>254000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>267000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>218000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>198000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>179100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>181500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>185600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>73700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>79900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>112600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>406200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>98400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>310400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>286600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2169,22 +2230,22 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-7700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>700</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-17000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-10700</v>
       </c>
       <c r="Q32" s="3">
         <v>-10700</v>
       </c>
       <c r="R32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="S32" s="3">
         <v>-14300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>96800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>93200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>93800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E33" s="3">
         <v>176000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>456000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>230000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>108000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>268000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>224000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>202000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>254000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>267000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>218000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>198000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>179100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>181500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>185600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>66000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>80600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>112600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>406200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>98400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>310400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>286600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E35" s="3">
         <v>176000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>456000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>230000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>108000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>268000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>224000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>202000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>254000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>267000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>218000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>198000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>179100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>181500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>185600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>66000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>80600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>112600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>406200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>98400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>310400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>286600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E41" s="3">
         <v>564000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>837000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>562000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>775000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1077000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>626000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>633000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>850000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>690000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>755000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>757000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>742600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>537800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>673800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>480200</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V41" s="3">
         <v>490600</v>
       </c>
-      <c r="V41" s="3" t="s">
+      <c r="W41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>561500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>386600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +2980,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1875000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2034000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1972000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1984000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1935000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2090000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1889000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1938000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1864000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1775000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1681000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1673000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1615900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1730500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1669100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1789500</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V43" s="3">
         <v>1315600</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="W43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1405200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1385100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2213000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2420000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2509000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2590000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2439000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2420000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2273000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2113000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1991000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1876000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1843000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1784000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1831900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1819800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1891800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1874400</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V44" s="3">
         <v>1387000</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="W44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1305500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1258600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>531000</v>
+      </c>
+      <c r="E45" s="3">
         <v>570000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>545000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>713000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>704000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>583000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>603000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>595000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>561000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>429000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>434000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>398000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>344300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>414100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>452900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>418100</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V45" s="3">
         <v>24600</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="W45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>14300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>13000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5308000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5588000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5863000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5849000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5853000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6170000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5391000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5279000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5266000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4770000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4713000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4612000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4534700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4502200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4687600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4562200</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V46" s="3">
         <v>3217800</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="W46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3286500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3043300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3213,182 +3318,191 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>77700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>108600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>96800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>103100</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V47" s="3">
         <v>438700</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>411900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>424900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4295000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4275000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4230000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4125000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4206000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4311000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4236000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4221000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4293000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4198000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4286000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4153000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4140100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4158800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4310800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4438800</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V48" s="3">
         <v>2623900</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2765300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2684100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6890000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6886000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6858000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6846000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6942000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7088000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7119000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7177000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7254000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7267000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7357000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7333000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7333600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7264300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7340400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7240300</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V49" s="3">
         <v>2361400</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2409300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2248700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E52" s="3">
         <v>529000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>524000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>472000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>425000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>418000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>392000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>367000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>375000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>357000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>362000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>367000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>356000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>387100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>397000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>386300</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V52" s="3">
         <v>226200</v>
       </c>
-      <c r="V52" s="3" t="s">
+      <c r="W52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>210300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>220500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17003000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17278000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17475000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17292000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17426000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17987000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17138000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17044000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17188000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16592000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16718000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16465000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16442100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16421000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16832600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16730700</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V54" s="3">
         <v>8868000</v>
       </c>
-      <c r="V54" s="3" t="s">
+      <c r="W54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9083300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8621500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3849,381 +3980,399 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2472500</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="W57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2607900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2202000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E58" s="3">
         <v>209000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>62000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>76000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>150000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>72000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>121000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>68000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>103000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>107000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>238000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>206300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>312800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>357200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>317800</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V58" s="3">
         <v>1481400</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1124600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>998100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4383000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4199000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4331000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4513000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4953000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4352000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4172000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3949000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4242000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3563000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3625000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3388000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3767300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3339100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3410200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3521800</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V59" s="3">
         <v>238600</v>
       </c>
-      <c r="V59" s="3" t="s">
+      <c r="W59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>301700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>203900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4476000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4408000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4393000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4589000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5103000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4424000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4293000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4017000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4345000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3670000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3678000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3626000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3973600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3651900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3767400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3839600</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V60" s="3">
         <v>4192500</v>
       </c>
-      <c r="V60" s="3" t="s">
+      <c r="W60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4034200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3404000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6653000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6804000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6840000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6879000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6340000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7177000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6548000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6524000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6186000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6497000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6432000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6361000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6028400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6208800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5853500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5454800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>3032200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>3486400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3673700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1758000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1831000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1848000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1842000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1809000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1778000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1798000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1836000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1720000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1760000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1734000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1753000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1757500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1808800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1944900</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V62" s="3">
         <v>585800</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="W62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>693000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>701700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12977000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13030000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13122000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13374000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13344000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13470000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12676000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12394000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12424000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11945000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11926000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11778000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11816200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11681400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11492900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11306500</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V66" s="3">
         <v>7874900</v>
       </c>
-      <c r="V66" s="3" t="s">
+      <c r="W66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8283200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7843400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>865000</v>
+      </c>
+      <c r="E72" s="3">
         <v>863000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>866000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>588000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>534000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>604000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>515000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>473000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>452000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>378000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>293000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>258000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>246500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>254700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>254400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>252300</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V72" s="3">
         <v>-428800</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-616800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-687000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4026000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4248000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4353000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3918000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4082000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4517000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4462000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4650000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4764000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4647000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4792000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4687000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4625900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4739600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5339700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5424200</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V76" s="3">
         <v>993100</v>
       </c>
-      <c r="V76" s="3" t="s">
+      <c r="W76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>800100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>778100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E81" s="3">
         <v>176000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>456000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>230000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>108000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>268000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>224000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>202000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>254000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>267000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>218000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>198000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>179100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>181500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>185600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>66000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>80600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>112600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>406200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>98400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>310400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>286600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E83" s="3">
         <v>144000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>133000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>151000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>146000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>147000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>155000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>177000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>148000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>139000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>142000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>145000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>152300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>167500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>147500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>184300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>183400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>77300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>106300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>86000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>202400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>185300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>932000</v>
+      </c>
+      <c r="E89" s="3">
         <v>184000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>384000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-239000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>862000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>266000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>435000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-112000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>844000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>175000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>552000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-110000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>913900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>128300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>431400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-89400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>613100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-113300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>540500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-305800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>812500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>214900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-132000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-98000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-152000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-154000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-118000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-110000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-145000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-133000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-117000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-104000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-114000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-86800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-106100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-91200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-115400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-81300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-78900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-59200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-112800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-175400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-203800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-173000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>264000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-240000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-144000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-118000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-120000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-145000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-118000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-103000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>27000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-78500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-77600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-90100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>284100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>194000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-70900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-105800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-173700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-458900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6485,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-180000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-184000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-181000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-182000</v>
       </c>
       <c r="H96" s="3">
         <v>-182000</v>
       </c>
       <c r="I96" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-185000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-183000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-186000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-182000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-186000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-188000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-187300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-183200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-388200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-231100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-258000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-653000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-282000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-416000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>326000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-943000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>287000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-302000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>67000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-578000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-192000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-485000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>76000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-646500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-147800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-135900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-306200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-767300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>232300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-384200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>154300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-476400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>139400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-32000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-60000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-77000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-27000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>34000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>21000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>17100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-30600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-273000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-213000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-302000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>451000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-217000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>160000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-65000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>204800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-136000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>193600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-121400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>52900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>58000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>136500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-266600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>179500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-135200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>59600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMCR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3443000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3673000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3667000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3642000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3712000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3909000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3708000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3507000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3420000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3454000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3207000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3103000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3097000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3142700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3141000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3043100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3140700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2602900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2309900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6837200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2262400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4633700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4467300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4873600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2798000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2951000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2994000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2980000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3044000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3115000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2977000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2862000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2770000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2709000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2525000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2452000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2443000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2423200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2489000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2425800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2594000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2068000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1890100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5535000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1868600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3651600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3537600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3793300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E10" s="3">
         <v>722000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>673000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>662000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>668000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>794000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>731000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>645000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>650000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>745000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>682000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>651000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>654000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>719500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>652000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>617300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>546700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>534900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>419800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1302200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>393800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>982100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>929700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1080300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>24000</v>
       </c>
       <c r="I12" s="3">
         <v>24000</v>
       </c>
       <c r="J12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>25900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>47500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>14200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>35800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>33300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,73 +1184,76 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E14" s="3">
         <v>58000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>50000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-213000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>207000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>72000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-24000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>23000</v>
       </c>
       <c r="O14" s="3">
         <v>23000</v>
       </c>
       <c r="P14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>53300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>24100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>69900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>44900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12500</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3173000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3348000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3385000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3083000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3370000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3657000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3339000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3185000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3124000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3089000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2834000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2796000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2821000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2832800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2869800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2770800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3000100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2391300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2128600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6179900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2084900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4149300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3999000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4786900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E18" s="3">
         <v>325000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>282000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>559000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>342000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>252000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>369000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>322000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>296000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>365000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>373000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>307000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>276000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>309900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>271200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>272300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>140600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>211600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>181300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>657300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>177500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>484400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>468300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,221 +1549,228 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>17000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>10700</v>
       </c>
       <c r="R20" s="3">
         <v>10700</v>
       </c>
       <c r="S20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="T20" s="3">
         <v>14300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-96800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-93200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-93800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-88600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E21" s="3">
         <v>476000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>443000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>706000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>502000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>406000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>526000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>484000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>483000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>521000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>516000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>456000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>427000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>464600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>449400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>430500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>339200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>399500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>268500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>661500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>263800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>593600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>559800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E22" s="3">
         <v>66000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>86000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>79000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>44000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>39000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>40000</v>
       </c>
       <c r="L22" s="3">
         <v>40000</v>
       </c>
       <c r="M22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="N22" s="3">
         <v>36000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>49100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>52300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>59700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>48600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>51100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>52100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>56300</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>10</v>
@@ -1738,156 +1778,165 @@
       <c r="Z22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E23" s="3">
         <v>252000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>213000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>494000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>292000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>216000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>343000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>290000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>266000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>333000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>341000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>277000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>242000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>263200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>236100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>230700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>95200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>167500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>134800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>508400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>121500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>391200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>374500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E24" s="3">
         <v>68000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>33000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>58000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>104000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>72000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>61000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>71000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>61000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>63900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>56100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>45100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>90700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>86500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>71100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>80600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E26" s="3">
         <v>184000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>179000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>461000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>234000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>112000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>271000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>229000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>203000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>259000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>270000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>222000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>181000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>199300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>180000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>185600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>73400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>76800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>106800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>421900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>99800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>320100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>293900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-48900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E27" s="3">
         <v>179000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>176000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>456000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>230000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>108000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>268000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>224000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>202000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>254000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>267000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>218000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>198000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>179100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>181500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>185600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>73700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>79900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>112600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>406200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>98400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>310400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>286600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2233,22 +2294,22 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-7700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>700</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-17000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-10700</v>
       </c>
       <c r="R32" s="3">
         <v>-10700</v>
       </c>
       <c r="S32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="T32" s="3">
         <v>-14300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>96800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>93200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>93800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E33" s="3">
         <v>179000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>176000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>456000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>230000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>108000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>268000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>224000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>202000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>254000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>267000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>218000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>198000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>179100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>181500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>185600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>66000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>80600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>112600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>406200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>98400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>310400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>286600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E35" s="3">
         <v>179000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>176000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>456000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>230000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>108000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>268000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>224000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>202000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>254000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>267000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>218000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>198000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>179100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>181500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>185600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>66000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>80600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>112600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>406200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>98400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>310400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>286600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E41" s="3">
         <v>689000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>564000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>837000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>562000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>775000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1077000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>626000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>633000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>850000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>690000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>755000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>757000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>742600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>537800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>673800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>480200</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W41" s="3">
         <v>490600</v>
       </c>
-      <c r="W41" s="3" t="s">
+      <c r="X41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>561500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>386600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>515700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,304 +3073,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1870000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1875000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2034000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1972000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1984000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1935000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2090000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1889000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1938000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1864000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1775000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1681000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1673000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1615900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1730500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1669100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1789500</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W43" s="3">
         <v>1315600</v>
       </c>
-      <c r="W43" s="3" t="s">
+      <c r="X43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1405200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1385100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1411600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2134000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2213000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2420000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2509000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2590000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2439000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2420000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2273000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2113000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1991000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1876000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1843000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1784000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1831900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1819800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1891800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1874400</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44" s="3">
         <v>1387000</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="X44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1305500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1258600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1244400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E45" s="3">
         <v>531000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>570000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>545000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>713000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>704000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>583000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>603000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>595000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>561000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>429000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>434000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>398000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>344300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>414100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>452900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>418100</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W45" s="3">
         <v>24600</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>14300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>13000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5085000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5308000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5588000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5863000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5849000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5853000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6170000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5391000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5279000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5266000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4770000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4713000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4612000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4534700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4502200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4687600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4562200</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W46" s="3">
         <v>3217800</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3286500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3043300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3193100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3321,188 +3426,197 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>77700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>108600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>96800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>103100</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47" s="3">
         <v>438700</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="X47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>411900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>424900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>446500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4247000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4295000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4275000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4230000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4125000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4206000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4311000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4236000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4221000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4293000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4198000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4286000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4153000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4140100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4158800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4310800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4438800</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W48" s="3">
         <v>2623900</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="X48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2765300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2684100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2690900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6832000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6890000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6886000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6858000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6846000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6942000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7088000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7119000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7177000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7254000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7267000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7357000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7333000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7333600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7264300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7340400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7240300</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W49" s="3">
         <v>2361400</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="X49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2409300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2248700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2102100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E52" s="3">
         <v>510000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>529000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>524000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>472000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>425000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>418000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>392000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>367000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>375000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>357000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>362000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>367000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>356000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>387100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>397000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>386300</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W52" s="3">
         <v>226200</v>
       </c>
-      <c r="W52" s="3" t="s">
+      <c r="X52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>210300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>220500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>249500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16683000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17003000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17278000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17475000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17292000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17426000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17987000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17138000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17044000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17188000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16592000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16718000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16465000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16442100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16421000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16832600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16730700</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W54" s="3">
         <v>8868000</v>
       </c>
-      <c r="W54" s="3" t="s">
+      <c r="X54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9083300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8621500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8682100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3983,396 +4114,414 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2472500</v>
       </c>
-      <c r="W57" s="3" t="s">
+      <c r="X57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2607900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2202000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2418400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E58" s="3">
         <v>93000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>209000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>62000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>76000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>150000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>72000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>121000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>68000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>103000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>107000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>53000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>238000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>206300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>312800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>357200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>317800</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W58" s="3">
         <v>1481400</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="X58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1124600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>998100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3887000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4383000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4199000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4331000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4513000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4953000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4352000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4172000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3949000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4242000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3563000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3625000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3388000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3767300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3339100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3410200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3521800</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W59" s="3">
         <v>238600</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="X59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>301700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>203900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>310100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4005000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4476000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4408000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4393000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4589000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5103000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4424000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4293000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4017000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4345000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3670000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3678000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3626000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3973600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3651900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3767400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3839600</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W60" s="3">
         <v>4192500</v>
       </c>
-      <c r="W60" s="3" t="s">
+      <c r="X60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4034200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3404000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3645200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6979000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6653000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6804000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6840000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6879000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6340000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7177000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6548000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6524000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6186000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6497000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6432000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6361000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6028400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6208800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5853500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5454800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>3032200</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>3486400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3673700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3428400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1735000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1784000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1758000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1831000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1848000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1842000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1809000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1778000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1798000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1836000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1720000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1760000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1734000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1753000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1757500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1808800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1944900</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W62" s="3">
         <v>585800</v>
       </c>
-      <c r="W62" s="3" t="s">
+      <c r="X62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>693000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>701700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12785000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12977000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13030000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13122000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13374000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13344000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13470000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12676000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12394000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12424000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11945000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11926000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11778000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11816200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11681400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11492900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11306500</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W66" s="3">
         <v>7874900</v>
       </c>
-      <c r="W66" s="3" t="s">
+      <c r="X66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8283200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7843400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7898200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E72" s="3">
         <v>865000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>863000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>866000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>588000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>534000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>604000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>515000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>473000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>452000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>378000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>293000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>258000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>246500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>254700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>254400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>252300</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W72" s="3">
         <v>-428800</v>
       </c>
-      <c r="W72" s="3" t="s">
+      <c r="X72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-616800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-687000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-648100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3898000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4026000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4248000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4353000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3918000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4082000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4517000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4462000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4650000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4764000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4647000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4792000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4687000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4625900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4739600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5339700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5424200</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W76" s="3">
         <v>993100</v>
       </c>
-      <c r="W76" s="3" t="s">
+      <c r="X76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>800100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>778100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>783900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E81" s="3">
         <v>179000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>176000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>456000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>230000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>108000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>268000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>224000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>202000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>254000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>267000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>218000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>198000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>179100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>181500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>185600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>66000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>80600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>112600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>406200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>98400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>310400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>286600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-61400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E83" s="3">
         <v>158000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>144000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>133000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>151000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>146000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>147000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>155000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>177000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>148000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>139000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>142000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>145000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>152300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>167500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>147500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>184300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>183400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>77300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>106300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>86000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>202400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>185300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>204700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E89" s="3">
         <v>932000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>184000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>384000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-239000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>862000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>266000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>435000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-112000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>844000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>175000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>552000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-110000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>913900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>128300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>431400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-89400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>613100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-113300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>540500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-305800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>812500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>214900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-144000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-132000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-98000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-152000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-154000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-118000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-110000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-145000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-133000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-117000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-104000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-114000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-86800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-106100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-91200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-115400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-81300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-78900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-59200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-112800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-175400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-203800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-186700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-160000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-173000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>264000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-240000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-144000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-118000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-120000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-145000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-118000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-103000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>27000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-77600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-90100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>284100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>194000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-70900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-105800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-173700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-458900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-700700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,82 +6719,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-178000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-180000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-184000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-181000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-182000</v>
       </c>
       <c r="I96" s="3">
         <v>-182000</v>
       </c>
       <c r="J96" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-185000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-183000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-186000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-182000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-186000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-188000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-187300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-183200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-388200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-231100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-258000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-222900</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-653000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-282000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-416000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>326000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-943000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>287000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-302000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>67000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-578000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-192000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-485000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>76000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-646500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-147800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-135900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-306200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-767300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>232300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-384200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>154300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-476400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>139400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-32000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-60000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-77000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-27000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>34000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>21000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-38900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-9300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>17100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-30600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E102" s="3">
         <v>125000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-273000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-213000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-302000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>451000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-217000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>160000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-65000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>204800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-136000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>193600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-121400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>52900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>58000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>136500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-266600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>179500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-135200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>59600</v>
       </c>
     </row>
